--- a/ExcelFiles/CraigsReportCaseStudy.xlsx
+++ b/ExcelFiles/CraigsReportCaseStudy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/curtisgn_byui_edu/Documents/Course Lead/108/Math108XWebsite/math108x/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_6E02BB2A03CD484BB3BEC2D90113893767994AF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7548F1-D5DF-43BE-81AA-5DFC9A721805}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_6E02BB2A03CD484BB3BEC2D90113893767994AF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1210C4-AB85-4738-98A3-7E5D0BE825C4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,7 +724,7 @@
     <t>Type in the remaining U.S Census Bureau data and recreate a more appropriate bar chart than the one given to summarize that data.</t>
   </si>
   <si>
-    <t>Winter 2023</t>
+    <t>Spring 2023</t>
   </si>
 </sst>
 </file>
@@ -2176,37 +2176,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2402,74 +2371,36 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2530,6 +2461,75 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4711,7 +4711,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5752,7 +5752,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:effectLst>
                   <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="000000">
@@ -5818,7 +5818,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:effectLst>
                   <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="000000">
@@ -5884,7 +5884,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:effectLst>
                   <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="000000">
@@ -5950,7 +5950,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:effectLst>
                   <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="000000">
@@ -6371,7 +6371,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -6415,7 +6415,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -6512,10 +6512,10 @@
     </row>
     <row r="2" spans="1:502 5589:5589" s="7" customFormat="1" ht="46.5" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="234" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="182"/>
+      <c r="D2" s="235"/>
       <c r="E2" s="33"/>
       <c r="F2" s="9"/>
       <c r="G2" s="20"/>
@@ -6552,7 +6552,7 @@
       <c r="I3" s="19"/>
       <c r="Q3" s="49"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="217" t="s">
+      <c r="U3" s="207" t="s">
         <v>10</v>
       </c>
       <c r="V3" s="16"/>
@@ -6590,20 +6590,20 @@
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
       <c r="T4" s="38"/>
-      <c r="U4" s="218"/>
-      <c r="V4" s="178" t="s">
+      <c r="U4" s="208"/>
+      <c r="V4" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="179"/>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="179"/>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
-      <c r="AC4" s="179"/>
-      <c r="AD4" s="179"/>
-      <c r="AE4" s="179"/>
-      <c r="AF4" s="180"/>
+      <c r="W4" s="232"/>
+      <c r="X4" s="232"/>
+      <c r="Y4" s="232"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232"/>
+      <c r="AC4" s="232"/>
+      <c r="AD4" s="232"/>
+      <c r="AE4" s="232"/>
+      <c r="AF4" s="233"/>
       <c r="AG4" s="38"/>
       <c r="AH4" s="21"/>
     </row>
@@ -6611,7 +6611,7 @@
       <c r="A5" s="21"/>
       <c r="C5" s="12"/>
       <c r="D5" s="42"/>
-      <c r="G5" s="219" t="s">
+      <c r="G5" s="209" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2"/>
@@ -6633,31 +6633,31 @@
       <c r="C6" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="215" t="s">
+      <c r="D6" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="219"/>
+      <c r="G6" s="209"/>
       <c r="H6" s="66"/>
       <c r="I6" s="67"/>
       <c r="J6" s="68"/>
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
-      <c r="M6" s="220" t="s">
+      <c r="M6" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="221"/>
-      <c r="O6" s="221"/>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="211"/>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="211"/>
+      <c r="S6" s="211"/>
       <c r="AH6" s="21"/>
     </row>
     <row r="7" spans="1:502 5589:5589" ht="21" customHeight="1">
       <c r="A7" s="21"/>
       <c r="C7" s="44"/>
-      <c r="D7" s="216"/>
-      <c r="G7" s="219"/>
+      <c r="D7" s="206"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="166" t="s">
         <v>85</v>
       </c>
@@ -6726,7 +6726,7 @@
       <c r="C8" s="44"/>
       <c r="D8" s="42"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="186"/>
+      <c r="F8" s="239"/>
       <c r="G8" s="2"/>
       <c r="H8" s="168" t="s">
         <v>17</v>
@@ -7238,11 +7238,11 @@
       <c r="C9" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="215" t="s">
+      <c r="D9" s="205" t="s">
         <v>87</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="187"/>
+      <c r="F9" s="240"/>
       <c r="G9" s="5"/>
       <c r="H9" s="168" t="s">
         <v>18</v>
@@ -7752,9 +7752,9 @@
       <c r="A10" s="26"/>
       <c r="B10" s="8"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="216"/>
+      <c r="D10" s="206"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="187"/>
+      <c r="F10" s="240"/>
       <c r="G10" s="5"/>
       <c r="H10" s="168" t="s">
         <v>19</v>
@@ -8778,19 +8778,19 @@
       <c r="C12" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="183" t="s">
+      <c r="D12" s="236" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="186"/>
+      <c r="F12" s="239"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="229" t="s">
+      <c r="I12" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="230"/>
-      <c r="K12" s="230"/>
-      <c r="L12" s="231"/>
+      <c r="J12" s="220"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="221"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -9285,15 +9285,15 @@
       <c r="A13" s="26"/>
       <c r="B13" s="8"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="184"/>
+      <c r="D13" s="237"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="187"/>
+      <c r="F13" s="240"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="232"/>
-      <c r="J13" s="233"/>
-      <c r="K13" s="233"/>
-      <c r="L13" s="234"/>
+      <c r="I13" s="222"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="224"/>
       <c r="M13" s="55"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -9789,15 +9789,15 @@
       <c r="A14" s="26"/>
       <c r="B14" s="8"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="185"/>
+      <c r="D14" s="238"/>
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="233"/>
-      <c r="L14" s="234"/>
+      <c r="I14" s="222"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="223"/>
+      <c r="L14" s="224"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -10298,10 +10298,10 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="232"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="233"/>
-      <c r="L15" s="234"/>
+      <c r="I15" s="222"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="223"/>
+      <c r="L15" s="224"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -10799,17 +10799,17 @@
       <c r="C16" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="222" t="s">
+      <c r="D16" s="212" t="s">
         <v>77</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="233"/>
-      <c r="L16" s="234"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="224"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -11305,15 +11305,15 @@
       <c r="A17" s="26"/>
       <c r="B17" s="8"/>
       <c r="C17" s="45"/>
-      <c r="D17" s="223"/>
+      <c r="D17" s="213"/>
       <c r="E17" s="8"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="232"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="233"/>
-      <c r="L17" s="234"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="224"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -11814,10 +11814,10 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="232"/>
-      <c r="J18" s="233"/>
-      <c r="K18" s="233"/>
-      <c r="L18" s="234"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="224"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -12315,17 +12315,17 @@
       <c r="C19" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="238" t="s">
+      <c r="D19" s="228" t="s">
         <v>86</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="233"/>
-      <c r="K19" s="233"/>
-      <c r="L19" s="234"/>
+      <c r="I19" s="222"/>
+      <c r="J19" s="223"/>
+      <c r="K19" s="223"/>
+      <c r="L19" s="224"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -12821,15 +12821,15 @@
       <c r="A20" s="26"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="239"/>
+      <c r="D20" s="229"/>
       <c r="E20" s="8"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="236"/>
-      <c r="K20" s="236"/>
-      <c r="L20" s="237"/>
+      <c r="I20" s="225"/>
+      <c r="J20" s="226"/>
+      <c r="K20" s="226"/>
+      <c r="L20" s="227"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -13325,7 +13325,7 @@
       <c r="A21" s="26"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="239"/>
+      <c r="D21" s="229"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -13829,10 +13829,10 @@
       <c r="A22" s="26"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="239"/>
+      <c r="D22" s="229"/>
       <c r="E22" s="8"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="219" t="s">
+      <c r="G22" s="209" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="5"/>
@@ -14335,21 +14335,21 @@
       <c r="A23" s="26"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="239"/>
+      <c r="D23" s="229"/>
       <c r="E23" s="8"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="219"/>
+      <c r="G23" s="209"/>
       <c r="H23" s="151" t="s">
         <v>55</v>
       </c>
       <c r="I23" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="197" t="s">
+      <c r="J23" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="198"/>
-      <c r="L23" s="199"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="189"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -14845,19 +14845,19 @@
       <c r="A24" s="26"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="239"/>
+      <c r="D24" s="229"/>
       <c r="E24" s="8"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="219"/>
+      <c r="G24" s="209"/>
       <c r="H24" s="168" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="74">
         <v>85204</v>
       </c>
-      <c r="J24" s="200"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="202"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="192"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -15352,7 +15352,7 @@
     <row r="25" spans="1:502" ht="21" customHeight="1">
       <c r="A25" s="21"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="239"/>
+      <c r="D25" s="229"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="168" t="s">
@@ -15361,9 +15361,9 @@
       <c r="I25" s="74">
         <v>115229</v>
       </c>
-      <c r="J25" s="200"/>
-      <c r="K25" s="201"/>
-      <c r="L25" s="202"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="192"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -15376,7 +15376,7 @@
     <row r="26" spans="1:502" ht="21" customHeight="1">
       <c r="A26" s="21"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="240"/>
+      <c r="D26" s="230"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="168" t="s">
@@ -15385,9 +15385,9 @@
       <c r="I26" s="74">
         <v>955820</v>
       </c>
-      <c r="J26" s="200"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="202"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="192"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -15413,9 +15413,9 @@
       <c r="I27" s="74">
         <v>402517</v>
       </c>
-      <c r="J27" s="200"/>
-      <c r="K27" s="201"/>
-      <c r="L27" s="202"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="192"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -15431,13 +15431,13 @@
       <c r="D28" s="27"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="224" t="s">
+      <c r="H28" s="214" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="225"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="201"/>
-      <c r="L28" s="202"/>
+      <c r="I28" s="215"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="192"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -15494,11 +15494,11 @@
       <c r="E29" s="8"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="225"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="201"/>
-      <c r="L29" s="202"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="215"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="192"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -15998,11 +15998,11 @@
       <c r="E30" s="8"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="225"/>
-      <c r="J30" s="203"/>
-      <c r="K30" s="204"/>
-      <c r="L30" s="205"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="195"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -17005,7 +17005,7 @@
       <c r="D32" s="27"/>
       <c r="E32" s="8"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="219" t="s">
+      <c r="G32" s="209" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="5"/>
@@ -17511,7 +17511,7 @@
       <c r="D33" s="27"/>
       <c r="E33" s="8"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="219"/>
+      <c r="G33" s="209"/>
       <c r="H33" s="151"/>
       <c r="I33" s="173" t="s">
         <v>41</v>
@@ -18023,7 +18023,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="27"/>
       <c r="E34" s="8"/>
-      <c r="G34" s="219"/>
+      <c r="G34" s="209"/>
       <c r="H34" s="170" t="s">
         <v>48</v>
       </c>
@@ -22075,13 +22075,13 @@
       <c r="J42" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="K42" s="206" t="s">
+      <c r="K42" s="196" t="s">
         <v>79</v>
       </c>
-      <c r="L42" s="207"/>
-      <c r="M42" s="207"/>
-      <c r="N42" s="207"/>
-      <c r="O42" s="208"/>
+      <c r="L42" s="197"/>
+      <c r="M42" s="197"/>
+      <c r="N42" s="197"/>
+      <c r="O42" s="198"/>
       <c r="P42" s="31"/>
       <c r="Q42" s="50"/>
       <c r="R42" s="28"/>
@@ -22584,11 +22584,11 @@
         <v>3.8</v>
       </c>
       <c r="J43" s="60"/>
-      <c r="K43" s="209"/>
-      <c r="L43" s="210"/>
-      <c r="M43" s="210"/>
-      <c r="N43" s="210"/>
-      <c r="O43" s="211"/>
+      <c r="K43" s="199"/>
+      <c r="L43" s="200"/>
+      <c r="M43" s="200"/>
+      <c r="N43" s="200"/>
+      <c r="O43" s="201"/>
       <c r="P43" s="32"/>
       <c r="Q43" s="51"/>
       <c r="R43" s="30"/>
@@ -23091,11 +23091,11 @@
         <v>1.4</v>
       </c>
       <c r="J44" s="59"/>
-      <c r="K44" s="209"/>
-      <c r="L44" s="210"/>
-      <c r="M44" s="210"/>
-      <c r="N44" s="210"/>
-      <c r="O44" s="211"/>
+      <c r="K44" s="199"/>
+      <c r="L44" s="200"/>
+      <c r="M44" s="200"/>
+      <c r="N44" s="200"/>
+      <c r="O44" s="201"/>
       <c r="P44" s="32"/>
       <c r="Q44" s="51"/>
       <c r="R44" s="30"/>
@@ -23598,11 +23598,11 @@
         <v>4.3</v>
       </c>
       <c r="J45" s="59"/>
-      <c r="K45" s="209"/>
-      <c r="L45" s="210"/>
-      <c r="M45" s="210"/>
-      <c r="N45" s="210"/>
-      <c r="O45" s="211"/>
+      <c r="K45" s="199"/>
+      <c r="L45" s="200"/>
+      <c r="M45" s="200"/>
+      <c r="N45" s="200"/>
+      <c r="O45" s="201"/>
       <c r="P45" s="32"/>
       <c r="Q45" s="51"/>
       <c r="R45" s="30"/>
@@ -24105,11 +24105,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J46" s="59"/>
-      <c r="K46" s="209"/>
-      <c r="L46" s="210"/>
-      <c r="M46" s="210"/>
-      <c r="N46" s="210"/>
-      <c r="O46" s="211"/>
+      <c r="K46" s="199"/>
+      <c r="L46" s="200"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="200"/>
+      <c r="O46" s="201"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="51"/>
       <c r="R46" s="30"/>
@@ -24612,11 +24612,11 @@
         <v>3.6</v>
       </c>
       <c r="J47" s="59"/>
-      <c r="K47" s="209"/>
-      <c r="L47" s="210"/>
-      <c r="M47" s="210"/>
-      <c r="N47" s="210"/>
-      <c r="O47" s="211"/>
+      <c r="K47" s="199"/>
+      <c r="L47" s="200"/>
+      <c r="M47" s="200"/>
+      <c r="N47" s="200"/>
+      <c r="O47" s="201"/>
       <c r="P47" s="32"/>
       <c r="Q47" s="51"/>
       <c r="R47" s="30"/>
@@ -25119,11 +25119,11 @@
         <v>3.5</v>
       </c>
       <c r="J48" s="59"/>
-      <c r="K48" s="209"/>
-      <c r="L48" s="210"/>
-      <c r="M48" s="210"/>
-      <c r="N48" s="210"/>
-      <c r="O48" s="211"/>
+      <c r="K48" s="199"/>
+      <c r="L48" s="200"/>
+      <c r="M48" s="200"/>
+      <c r="N48" s="200"/>
+      <c r="O48" s="201"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="51"/>
       <c r="R48" s="30"/>
@@ -25622,11 +25622,11 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="209"/>
-      <c r="L49" s="210"/>
-      <c r="M49" s="210"/>
-      <c r="N49" s="210"/>
-      <c r="O49" s="211"/>
+      <c r="K49" s="199"/>
+      <c r="L49" s="200"/>
+      <c r="M49" s="200"/>
+      <c r="N49" s="200"/>
+      <c r="O49" s="201"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="51"/>
       <c r="R49" s="30"/>
@@ -26125,11 +26125,11 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="61"/>
-      <c r="K50" s="209"/>
-      <c r="L50" s="210"/>
-      <c r="M50" s="210"/>
-      <c r="N50" s="210"/>
-      <c r="O50" s="211"/>
+      <c r="K50" s="199"/>
+      <c r="L50" s="200"/>
+      <c r="M50" s="200"/>
+      <c r="N50" s="200"/>
+      <c r="O50" s="201"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="51"/>
       <c r="R50" s="30"/>
@@ -26628,11 +26628,11 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="61"/>
-      <c r="K51" s="209"/>
-      <c r="L51" s="210"/>
-      <c r="M51" s="210"/>
-      <c r="N51" s="210"/>
-      <c r="O51" s="211"/>
+      <c r="K51" s="199"/>
+      <c r="L51" s="200"/>
+      <c r="M51" s="200"/>
+      <c r="N51" s="200"/>
+      <c r="O51" s="201"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="51"/>
       <c r="R51" s="30"/>
@@ -27131,11 +27131,11 @@
       <c r="H52" s="8"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
-      <c r="K52" s="212"/>
-      <c r="L52" s="213"/>
-      <c r="M52" s="213"/>
-      <c r="N52" s="213"/>
-      <c r="O52" s="214"/>
+      <c r="K52" s="202"/>
+      <c r="L52" s="203"/>
+      <c r="M52" s="203"/>
+      <c r="N52" s="203"/>
+      <c r="O52" s="204"/>
       <c r="P52" s="32"/>
       <c r="Q52" s="51"/>
       <c r="R52" s="30"/>
@@ -28131,7 +28131,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="27"/>
       <c r="E54" s="8"/>
-      <c r="G54" s="226" t="s">
+      <c r="G54" s="216" t="s">
         <v>66</v>
       </c>
       <c r="H54" s="8"/>
@@ -28634,7 +28634,7 @@
       <c r="C55" s="8"/>
       <c r="D55" s="27"/>
       <c r="E55" s="8"/>
-      <c r="G55" s="227"/>
+      <c r="G55" s="217"/>
       <c r="H55" s="151" t="s">
         <v>22</v>
       </c>
@@ -28644,13 +28644,13 @@
       <c r="J55" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="K55" s="188" t="s">
+      <c r="K55" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="L55" s="189"/>
-      <c r="M55" s="189"/>
-      <c r="N55" s="189"/>
-      <c r="O55" s="190"/>
+      <c r="L55" s="179"/>
+      <c r="M55" s="179"/>
+      <c r="N55" s="179"/>
+      <c r="O55" s="180"/>
       <c r="P55" s="31"/>
       <c r="Q55" s="50"/>
       <c r="R55" s="28"/>
@@ -29145,7 +29145,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="27"/>
       <c r="E56" s="8"/>
-      <c r="G56" s="228"/>
+      <c r="G56" s="218"/>
       <c r="H56" s="168" t="s">
         <v>3</v>
       </c>
@@ -29155,11 +29155,11 @@
       <c r="J56" s="80">
         <v>54345</v>
       </c>
-      <c r="K56" s="191"/>
-      <c r="L56" s="192"/>
-      <c r="M56" s="192"/>
-      <c r="N56" s="192"/>
-      <c r="O56" s="193"/>
+      <c r="K56" s="181"/>
+      <c r="L56" s="182"/>
+      <c r="M56" s="182"/>
+      <c r="N56" s="182"/>
+      <c r="O56" s="183"/>
       <c r="P56" s="31"/>
       <c r="Q56" s="50"/>
       <c r="R56" s="28"/>
@@ -29664,11 +29664,11 @@
       <c r="J57" s="81">
         <v>67321</v>
       </c>
-      <c r="K57" s="191"/>
-      <c r="L57" s="192"/>
-      <c r="M57" s="192"/>
-      <c r="N57" s="192"/>
-      <c r="O57" s="193"/>
+      <c r="K57" s="181"/>
+      <c r="L57" s="182"/>
+      <c r="M57" s="182"/>
+      <c r="N57" s="182"/>
+      <c r="O57" s="183"/>
       <c r="P57" s="31"/>
       <c r="Q57" s="50"/>
       <c r="R57" s="28"/>
@@ -30173,11 +30173,11 @@
       <c r="J58" s="81">
         <v>86911</v>
       </c>
-      <c r="K58" s="191"/>
-      <c r="L58" s="192"/>
-      <c r="M58" s="192"/>
-      <c r="N58" s="192"/>
-      <c r="O58" s="193"/>
+      <c r="K58" s="181"/>
+      <c r="L58" s="182"/>
+      <c r="M58" s="182"/>
+      <c r="N58" s="182"/>
+      <c r="O58" s="183"/>
       <c r="P58" s="31"/>
       <c r="Q58" s="50"/>
       <c r="R58" s="28"/>
@@ -30683,11 +30683,11 @@
       <c r="J59" s="81">
         <v>105222</v>
       </c>
-      <c r="K59" s="191"/>
-      <c r="L59" s="192"/>
-      <c r="M59" s="192"/>
-      <c r="N59" s="192"/>
-      <c r="O59" s="193"/>
+      <c r="K59" s="181"/>
+      <c r="L59" s="182"/>
+      <c r="M59" s="182"/>
+      <c r="N59" s="182"/>
+      <c r="O59" s="183"/>
       <c r="P59" s="31"/>
       <c r="Q59" s="50"/>
       <c r="R59" s="28"/>
@@ -30725,11 +30725,11 @@
       <c r="J60" s="81">
         <v>110315</v>
       </c>
-      <c r="K60" s="191"/>
-      <c r="L60" s="192"/>
-      <c r="M60" s="192"/>
-      <c r="N60" s="192"/>
-      <c r="O60" s="193"/>
+      <c r="K60" s="181"/>
+      <c r="L60" s="182"/>
+      <c r="M60" s="182"/>
+      <c r="N60" s="182"/>
+      <c r="O60" s="183"/>
       <c r="P60" s="31"/>
       <c r="Q60" s="50"/>
       <c r="R60" s="28"/>
@@ -30767,11 +30767,11 @@
       <c r="J61" s="81">
         <v>133153</v>
       </c>
-      <c r="K61" s="191"/>
-      <c r="L61" s="192"/>
-      <c r="M61" s="192"/>
-      <c r="N61" s="192"/>
-      <c r="O61" s="193"/>
+      <c r="K61" s="181"/>
+      <c r="L61" s="182"/>
+      <c r="M61" s="182"/>
+      <c r="N61" s="182"/>
+      <c r="O61" s="183"/>
       <c r="P61" s="31"/>
       <c r="Q61" s="50"/>
       <c r="R61" s="28"/>
@@ -30809,11 +30809,11 @@
       <c r="J62" s="81">
         <v>156213</v>
       </c>
-      <c r="K62" s="191"/>
-      <c r="L62" s="192"/>
-      <c r="M62" s="192"/>
-      <c r="N62" s="192"/>
-      <c r="O62" s="193"/>
+      <c r="K62" s="181"/>
+      <c r="L62" s="182"/>
+      <c r="M62" s="182"/>
+      <c r="N62" s="182"/>
+      <c r="O62" s="183"/>
       <c r="P62" s="31"/>
       <c r="Q62" s="50"/>
       <c r="R62" s="28"/>
@@ -30851,11 +30851,11 @@
       <c r="J63" s="81">
         <v>168158</v>
       </c>
-      <c r="K63" s="191"/>
-      <c r="L63" s="192"/>
-      <c r="M63" s="192"/>
-      <c r="N63" s="192"/>
-      <c r="O63" s="193"/>
+      <c r="K63" s="181"/>
+      <c r="L63" s="182"/>
+      <c r="M63" s="182"/>
+      <c r="N63" s="182"/>
+      <c r="O63" s="183"/>
       <c r="P63" s="31"/>
       <c r="Q63" s="50"/>
       <c r="R63" s="28"/>
@@ -30893,11 +30893,11 @@
       <c r="J64" s="81">
         <v>135859</v>
       </c>
-      <c r="K64" s="191"/>
-      <c r="L64" s="192"/>
-      <c r="M64" s="192"/>
-      <c r="N64" s="192"/>
-      <c r="O64" s="193"/>
+      <c r="K64" s="181"/>
+      <c r="L64" s="182"/>
+      <c r="M64" s="182"/>
+      <c r="N64" s="182"/>
+      <c r="O64" s="183"/>
       <c r="P64" s="31"/>
       <c r="Q64" s="50"/>
       <c r="R64" s="28"/>
@@ -30935,11 +30935,11 @@
       <c r="J65" s="81">
         <v>93628</v>
       </c>
-      <c r="K65" s="194"/>
-      <c r="L65" s="195"/>
-      <c r="M65" s="195"/>
-      <c r="N65" s="195"/>
-      <c r="O65" s="196"/>
+      <c r="K65" s="184"/>
+      <c r="L65" s="185"/>
+      <c r="M65" s="185"/>
+      <c r="N65" s="185"/>
+      <c r="O65" s="186"/>
       <c r="P65" s="31"/>
       <c r="Q65" s="50"/>
       <c r="R65" s="28"/>
@@ -36887,6 +36887,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="+QrPHHFeJ2y8YE3i0POWftRC0OiOyuNh3OJVoaFeUa6AtFsOevkmafr1QdmC0ZWKBqUrx08YB56uLnobai4gVA==" saltValue="vdW1H2djaNrvaiHQjOVh8w==" spinCount="100000" sheet="1"/>
   <mergeCells count="20">
+    <mergeCell ref="V4:AF4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="K55:O65"/>
     <mergeCell ref="J23:L30"/>
     <mergeCell ref="K42:O52"/>
@@ -36902,11 +36907,6 @@
     <mergeCell ref="G54:G56"/>
     <mergeCell ref="I12:L20"/>
     <mergeCell ref="D19:D26"/>
-    <mergeCell ref="V4:AF4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -37009,29 +37009,29 @@
     <row r="2" spans="1:502" s="7" customFormat="1" ht="46.5" customHeight="1">
       <c r="A2" s="91"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="262" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="252"/>
+      <c r="D2" s="262"/>
       <c r="E2" s="98"/>
-      <c r="F2" s="261">
+      <c r="F2" s="272">
         <f>COUNTIF(G4:T66,"ERROR")</f>
         <v>20</v>
       </c>
-      <c r="G2" s="261"/>
+      <c r="G2" s="272"/>
       <c r="H2" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="263" t="s">
+      <c r="I2" s="274" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="263"/>
-      <c r="O2" s="263"/>
-      <c r="P2" s="263"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="274"/>
+      <c r="L2" s="274"/>
+      <c r="M2" s="274"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="274"/>
+      <c r="P2" s="274"/>
       <c r="Q2" s="100"/>
       <c r="R2" s="97"/>
       <c r="S2" s="97"/>
@@ -37062,27 +37062,27 @@
         <v>61</v>
       </c>
       <c r="E3" s="98"/>
-      <c r="F3" s="262">
+      <c r="F3" s="273">
         <f>COUNTIF(G4:T66,"Correct")</f>
         <v>2</v>
       </c>
-      <c r="G3" s="262"/>
+      <c r="G3" s="273"/>
       <c r="H3" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="263"/>
-      <c r="L3" s="263"/>
-      <c r="M3" s="263"/>
-      <c r="N3" s="263"/>
-      <c r="O3" s="263"/>
-      <c r="P3" s="263"/>
+      <c r="I3" s="274"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="274"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="274"/>
+      <c r="N3" s="274"/>
+      <c r="O3" s="274"/>
+      <c r="P3" s="274"/>
       <c r="Q3" s="100"/>
       <c r="R3" s="97"/>
       <c r="S3" s="97"/>
       <c r="T3" s="101"/>
-      <c r="U3" s="253" t="s">
+      <c r="U3" s="263" t="s">
         <v>10</v>
       </c>
       <c r="V3" s="101"/>
@@ -37126,20 +37126,20 @@
       <c r="R4" s="97"/>
       <c r="S4" s="97"/>
       <c r="T4" s="109"/>
-      <c r="U4" s="254"/>
-      <c r="V4" s="255" t="s">
+      <c r="U4" s="264"/>
+      <c r="V4" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="256"/>
-      <c r="X4" s="256"/>
-      <c r="Y4" s="256"/>
-      <c r="Z4" s="256"/>
-      <c r="AA4" s="256"/>
-      <c r="AB4" s="256"/>
-      <c r="AC4" s="256"/>
-      <c r="AD4" s="256"/>
-      <c r="AE4" s="256"/>
-      <c r="AF4" s="257"/>
+      <c r="W4" s="266"/>
+      <c r="X4" s="266"/>
+      <c r="Y4" s="266"/>
+      <c r="Z4" s="266"/>
+      <c r="AA4" s="266"/>
+      <c r="AB4" s="266"/>
+      <c r="AC4" s="266"/>
+      <c r="AD4" s="266"/>
+      <c r="AE4" s="266"/>
+      <c r="AF4" s="267"/>
       <c r="AG4" s="109"/>
       <c r="AH4" s="91"/>
       <c r="DT4" s="17"/>
@@ -37151,7 +37151,7 @@
       <c r="D5" s="111"/>
       <c r="E5" s="97"/>
       <c r="F5" s="104"/>
-      <c r="G5" s="258" t="s">
+      <c r="G5" s="261" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="97"/>
@@ -37191,27 +37191,27 @@
       <c r="C6" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="243" t="str">
+      <c r="D6" s="268" t="str">
         <f>'Craig''s Report'!D6:D7</f>
         <v>Type in the remaining U.S Census Bureau data and recreate a more appropriate bar chart than the one given to summarize that data.</v>
       </c>
       <c r="E6" s="97"/>
       <c r="F6" s="104"/>
-      <c r="G6" s="258"/>
+      <c r="G6" s="261"/>
       <c r="H6" s="114"/>
       <c r="I6" s="115"/>
       <c r="J6" s="116"/>
       <c r="K6" s="115"/>
       <c r="L6" s="117"/>
-      <c r="M6" s="259" t="s">
+      <c r="M6" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="259"/>
-      <c r="O6" s="259"/>
-      <c r="P6" s="259"/>
-      <c r="Q6" s="259"/>
-      <c r="R6" s="259"/>
-      <c r="S6" s="260"/>
+      <c r="N6" s="270"/>
+      <c r="O6" s="270"/>
+      <c r="P6" s="270"/>
+      <c r="Q6" s="270"/>
+      <c r="R6" s="270"/>
+      <c r="S6" s="271"/>
       <c r="T6" s="97"/>
       <c r="U6" s="118"/>
       <c r="V6" s="118"/>
@@ -37235,10 +37235,10 @@
       <c r="A7" s="91"/>
       <c r="B7" s="97"/>
       <c r="C7" s="119"/>
-      <c r="D7" s="244"/>
+      <c r="D7" s="269"/>
       <c r="E7" s="97"/>
       <c r="F7" s="104"/>
-      <c r="G7" s="258"/>
+      <c r="G7" s="261"/>
       <c r="H7" s="120" t="s">
         <v>16</v>
       </c>
@@ -37310,7 +37310,7 @@
       <c r="C8" s="119"/>
       <c r="D8" s="111"/>
       <c r="E8" s="122"/>
-      <c r="F8" s="241"/>
+      <c r="F8" s="275"/>
       <c r="G8" s="97"/>
       <c r="H8" s="125" t="s">
         <v>17</v>
@@ -37827,12 +37827,12 @@
       <c r="C9" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="243" t="str">
+      <c r="D9" s="268" t="str">
         <f>'Craig''s Report'!D9:D10</f>
         <v xml:space="preserve">Create an appropriate chart or graph that summarizes the company's annual sales by age group category. </v>
       </c>
       <c r="E9" s="122"/>
-      <c r="F9" s="242"/>
+      <c r="F9" s="276"/>
       <c r="G9" s="122"/>
       <c r="H9" s="125" t="s">
         <v>18</v>
@@ -38347,9 +38347,9 @@
       <c r="A10" s="124"/>
       <c r="B10" s="122"/>
       <c r="C10" s="129"/>
-      <c r="D10" s="244"/>
+      <c r="D10" s="269"/>
       <c r="E10" s="122"/>
-      <c r="F10" s="242"/>
+      <c r="F10" s="276"/>
       <c r="G10" s="122"/>
       <c r="H10" s="125" t="s">
         <v>19</v>
@@ -39379,20 +39379,20 @@
       <c r="C12" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="243" t="str">
+      <c r="D12" s="268" t="str">
         <f>'Craig''s Report'!D12:D14</f>
         <v>Check Craig's numerical summaries for accuracy and compute all remaining numerical summaries in order to produce a graph depicting if there is a relationship between                                                                                                                                                                                                                                                                                                                                                                                                               the average annual sales of each store and the store's distance from the nearest athletic stadium.</v>
       </c>
       <c r="E12" s="122"/>
-      <c r="F12" s="241"/>
+      <c r="F12" s="275"/>
       <c r="G12" s="122"/>
       <c r="H12" s="122"/>
-      <c r="I12" s="246" t="s">
+      <c r="I12" s="278" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="247"/>
-      <c r="K12" s="247"/>
-      <c r="L12" s="248"/>
+      <c r="J12" s="279"/>
+      <c r="K12" s="279"/>
+      <c r="L12" s="280"/>
       <c r="M12" s="122"/>
       <c r="N12" s="122"/>
       <c r="O12" s="122"/>
@@ -39888,15 +39888,15 @@
       <c r="A13" s="124"/>
       <c r="B13" s="122"/>
       <c r="C13" s="131"/>
-      <c r="D13" s="245"/>
+      <c r="D13" s="277"/>
       <c r="E13" s="122"/>
-      <c r="F13" s="242"/>
+      <c r="F13" s="276"/>
       <c r="G13" s="122"/>
       <c r="H13" s="122"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="I13" s="278"/>
+      <c r="J13" s="279"/>
+      <c r="K13" s="279"/>
+      <c r="L13" s="280"/>
       <c r="M13" s="132"/>
       <c r="N13" s="122"/>
       <c r="O13" s="122"/>
@@ -40392,15 +40392,15 @@
       <c r="A14" s="124"/>
       <c r="B14" s="122"/>
       <c r="C14" s="131"/>
-      <c r="D14" s="244"/>
+      <c r="D14" s="269"/>
       <c r="E14" s="122"/>
       <c r="F14" s="122"/>
       <c r="G14" s="122"/>
       <c r="H14" s="122"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="247"/>
-      <c r="K14" s="247"/>
-      <c r="L14" s="248"/>
+      <c r="I14" s="278"/>
+      <c r="J14" s="279"/>
+      <c r="K14" s="279"/>
+      <c r="L14" s="280"/>
       <c r="M14" s="122"/>
       <c r="N14" s="122"/>
       <c r="O14" s="122"/>
@@ -40901,10 +40901,10 @@
       <c r="F15" s="122"/>
       <c r="G15" s="122"/>
       <c r="H15" s="122"/>
-      <c r="I15" s="246"/>
-      <c r="J15" s="247"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="248"/>
+      <c r="I15" s="278"/>
+      <c r="J15" s="279"/>
+      <c r="K15" s="279"/>
+      <c r="L15" s="280"/>
       <c r="M15" s="122"/>
       <c r="N15" s="122"/>
       <c r="O15" s="122"/>
@@ -41402,7 +41402,7 @@
       <c r="C16" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="243" t="str">
+      <c r="D16" s="268" t="str">
         <f>'Craig''s Report'!D16:D17</f>
         <v xml:space="preserve">Create an appropriate chart or graph (click to review when to use each graph) that summarizes the company's average monthly sales by month of the year. </v>
       </c>
@@ -41410,10 +41410,10 @@
       <c r="F16" s="122"/>
       <c r="G16" s="122"/>
       <c r="H16" s="122"/>
-      <c r="I16" s="246"/>
-      <c r="J16" s="247"/>
-      <c r="K16" s="247"/>
-      <c r="L16" s="248"/>
+      <c r="I16" s="278"/>
+      <c r="J16" s="279"/>
+      <c r="K16" s="279"/>
+      <c r="L16" s="280"/>
       <c r="M16" s="122"/>
       <c r="N16" s="122"/>
       <c r="O16" s="122"/>
@@ -41909,15 +41909,15 @@
       <c r="A17" s="124"/>
       <c r="B17" s="122"/>
       <c r="C17" s="129"/>
-      <c r="D17" s="244"/>
+      <c r="D17" s="269"/>
       <c r="E17" s="122"/>
       <c r="F17" s="122"/>
       <c r="G17" s="122"/>
       <c r="H17" s="122"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="247"/>
-      <c r="K17" s="247"/>
-      <c r="L17" s="248"/>
+      <c r="I17" s="278"/>
+      <c r="J17" s="279"/>
+      <c r="K17" s="279"/>
+      <c r="L17" s="280"/>
       <c r="M17" s="122"/>
       <c r="N17" s="122"/>
       <c r="O17" s="122"/>
@@ -42418,10 +42418,10 @@
       <c r="F18" s="122"/>
       <c r="G18" s="122"/>
       <c r="H18" s="122"/>
-      <c r="I18" s="246"/>
-      <c r="J18" s="247"/>
-      <c r="K18" s="247"/>
-      <c r="L18" s="248"/>
+      <c r="I18" s="278"/>
+      <c r="J18" s="279"/>
+      <c r="K18" s="279"/>
+      <c r="L18" s="280"/>
       <c r="M18" s="122"/>
       <c r="N18" s="122"/>
       <c r="O18" s="122"/>
@@ -42919,7 +42919,7 @@
       <c r="C19" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="243" t="str">
+      <c r="D19" s="268" t="str">
         <f>'Craig''s Report'!D19:D20</f>
         <v>Write a plan or script for what you would say during the next company meeting when presenting these charts and graphs and numerical summaries to Craig's Team. 
 Your comments should be of professional presentation quality.Provide conclusions from the data and graphics for each of parts #2 through #5. One paragraph per section.</v>
@@ -42928,10 +42928,10 @@
       <c r="F19" s="122"/>
       <c r="G19" s="122"/>
       <c r="H19" s="122"/>
-      <c r="I19" s="246"/>
-      <c r="J19" s="247"/>
-      <c r="K19" s="247"/>
-      <c r="L19" s="248"/>
+      <c r="I19" s="278"/>
+      <c r="J19" s="279"/>
+      <c r="K19" s="279"/>
+      <c r="L19" s="280"/>
       <c r="M19" s="122"/>
       <c r="N19" s="122"/>
       <c r="O19" s="122"/>
@@ -43427,15 +43427,15 @@
       <c r="A20" s="124"/>
       <c r="B20" s="122"/>
       <c r="C20" s="122"/>
-      <c r="D20" s="244"/>
+      <c r="D20" s="269"/>
       <c r="E20" s="122"/>
       <c r="F20" s="122"/>
       <c r="G20" s="122"/>
       <c r="H20" s="122"/>
-      <c r="I20" s="249"/>
-      <c r="J20" s="250"/>
-      <c r="K20" s="250"/>
-      <c r="L20" s="251"/>
+      <c r="I20" s="281"/>
+      <c r="J20" s="282"/>
+      <c r="K20" s="282"/>
+      <c r="L20" s="283"/>
       <c r="M20" s="122"/>
       <c r="N20" s="122"/>
       <c r="O20" s="122"/>
@@ -44438,7 +44438,7 @@
       <c r="D22" s="133"/>
       <c r="E22" s="122"/>
       <c r="F22" s="122"/>
-      <c r="G22" s="258" t="s">
+      <c r="G22" s="261" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="122"/>
@@ -44944,18 +44944,18 @@
       <c r="D23" s="135"/>
       <c r="E23" s="122"/>
       <c r="F23" s="122"/>
-      <c r="G23" s="258"/>
+      <c r="G23" s="261"/>
       <c r="H23" s="136" t="s">
         <v>55</v>
       </c>
       <c r="I23" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="264" t="s">
+      <c r="J23" s="241" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="265"/>
-      <c r="L23" s="266"/>
+      <c r="K23" s="242"/>
+      <c r="L23" s="243"/>
       <c r="M23" s="122"/>
       <c r="N23" s="122"/>
       <c r="O23" s="122"/>
@@ -45454,16 +45454,16 @@
       <c r="D24" s="135"/>
       <c r="E24" s="122"/>
       <c r="F24" s="122"/>
-      <c r="G24" s="258"/>
+      <c r="G24" s="261"/>
       <c r="H24" s="138" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="83">
         <v>85204</v>
       </c>
-      <c r="J24" s="267"/>
-      <c r="K24" s="267"/>
-      <c r="L24" s="268"/>
+      <c r="J24" s="244"/>
+      <c r="K24" s="244"/>
+      <c r="L24" s="245"/>
       <c r="M24" s="122"/>
       <c r="N24" s="122"/>
       <c r="O24" s="122"/>
@@ -45969,9 +45969,9 @@
       <c r="I25" s="84">
         <v>115229</v>
       </c>
-      <c r="J25" s="267"/>
-      <c r="K25" s="267"/>
-      <c r="L25" s="268"/>
+      <c r="J25" s="244"/>
+      <c r="K25" s="244"/>
+      <c r="L25" s="245"/>
       <c r="M25" s="122"/>
       <c r="N25" s="122"/>
       <c r="O25" s="122"/>
@@ -46009,9 +46009,9 @@
       <c r="I26" s="84">
         <v>955820</v>
       </c>
-      <c r="J26" s="267"/>
-      <c r="K26" s="267"/>
-      <c r="L26" s="268"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="244"/>
+      <c r="L26" s="245"/>
       <c r="M26" s="122"/>
       <c r="N26" s="122"/>
       <c r="O26" s="122"/>
@@ -46053,9 +46053,9 @@
       <c r="I27" s="84">
         <v>402517</v>
       </c>
-      <c r="J27" s="267"/>
-      <c r="K27" s="267"/>
-      <c r="L27" s="268"/>
+      <c r="J27" s="244"/>
+      <c r="K27" s="244"/>
+      <c r="L27" s="245"/>
       <c r="M27" s="122"/>
       <c r="N27" s="122"/>
       <c r="O27" s="122"/>
@@ -46087,13 +46087,13 @@
       <c r="E28" s="97"/>
       <c r="F28" s="122"/>
       <c r="G28" s="122"/>
-      <c r="H28" s="273" t="s">
+      <c r="H28" s="250" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="274"/>
-      <c r="J28" s="269"/>
-      <c r="K28" s="267"/>
-      <c r="L28" s="268"/>
+      <c r="I28" s="251"/>
+      <c r="J28" s="246"/>
+      <c r="K28" s="244"/>
+      <c r="L28" s="245"/>
       <c r="M28" s="122"/>
       <c r="N28" s="122"/>
       <c r="O28" s="122"/>
@@ -46150,11 +46150,11 @@
       <c r="E29" s="122"/>
       <c r="F29" s="122"/>
       <c r="G29" s="122"/>
-      <c r="H29" s="273"/>
-      <c r="I29" s="274"/>
-      <c r="J29" s="269"/>
-      <c r="K29" s="267"/>
-      <c r="L29" s="268"/>
+      <c r="H29" s="250"/>
+      <c r="I29" s="251"/>
+      <c r="J29" s="246"/>
+      <c r="K29" s="244"/>
+      <c r="L29" s="245"/>
       <c r="M29" s="122"/>
       <c r="N29" s="122"/>
       <c r="O29" s="122"/>
@@ -46654,11 +46654,11 @@
       <c r="E30" s="122"/>
       <c r="F30" s="122"/>
       <c r="G30" s="122"/>
-      <c r="H30" s="273"/>
-      <c r="I30" s="274"/>
-      <c r="J30" s="270"/>
-      <c r="K30" s="271"/>
-      <c r="L30" s="272"/>
+      <c r="H30" s="250"/>
+      <c r="I30" s="251"/>
+      <c r="J30" s="247"/>
+      <c r="K30" s="248"/>
+      <c r="L30" s="249"/>
       <c r="M30" s="122"/>
       <c r="N30" s="122"/>
       <c r="O30" s="122"/>
@@ -47661,7 +47661,7 @@
       <c r="D32" s="135"/>
       <c r="E32" s="122"/>
       <c r="F32" s="122"/>
-      <c r="G32" s="226" t="s">
+      <c r="G32" s="216" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="122"/>
@@ -48167,7 +48167,7 @@
       <c r="D33" s="135"/>
       <c r="E33" s="122"/>
       <c r="F33" s="122"/>
-      <c r="G33" s="227"/>
+      <c r="G33" s="217"/>
       <c r="H33" s="136"/>
       <c r="I33" s="120" t="s">
         <v>41</v>
@@ -48683,7 +48683,7 @@
       <c r="D34" s="135"/>
       <c r="E34" s="122"/>
       <c r="F34" s="122"/>
-      <c r="G34" s="228"/>
+      <c r="G34" s="218"/>
       <c r="H34" s="140" t="s">
         <v>48</v>
       </c>
@@ -52815,13 +52815,13 @@
       <c r="J42" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="K42" s="275" t="s">
+      <c r="K42" s="252" t="s">
         <v>72</v>
       </c>
-      <c r="L42" s="276"/>
-      <c r="M42" s="276"/>
-      <c r="N42" s="276"/>
-      <c r="O42" s="277"/>
+      <c r="L42" s="253"/>
+      <c r="M42" s="253"/>
+      <c r="N42" s="253"/>
+      <c r="O42" s="254"/>
       <c r="P42" s="147"/>
       <c r="Q42" s="148"/>
       <c r="R42" s="149"/>
@@ -53328,11 +53328,11 @@
         <f>IF(ISBLANK('Craig''s Report'!J43),"ERROR",IF(ABS('Craig''s Report'!J43-'Craig''s Report'!I39)&lt;0.5,"Correct","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="K43" s="278"/>
-      <c r="L43" s="279"/>
-      <c r="M43" s="279"/>
-      <c r="N43" s="279"/>
-      <c r="O43" s="280"/>
+      <c r="K43" s="255"/>
+      <c r="L43" s="256"/>
+      <c r="M43" s="256"/>
+      <c r="N43" s="256"/>
+      <c r="O43" s="257"/>
       <c r="P43" s="155"/>
       <c r="Q43" s="156"/>
       <c r="R43" s="157"/>
@@ -53839,11 +53839,11 @@
         <f>IF(ISBLANK('Craig''s Report'!J44),"ERROR",IF(ABS('Craig''s Report'!J44-'Craig''s Report'!J39)&lt;0.5,"Correct","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="K44" s="278"/>
-      <c r="L44" s="279"/>
-      <c r="M44" s="279"/>
-      <c r="N44" s="279"/>
-      <c r="O44" s="280"/>
+      <c r="K44" s="255"/>
+      <c r="L44" s="256"/>
+      <c r="M44" s="256"/>
+      <c r="N44" s="256"/>
+      <c r="O44" s="257"/>
       <c r="P44" s="155"/>
       <c r="Q44" s="156"/>
       <c r="R44" s="157"/>
@@ -54350,11 +54350,11 @@
         <f>IF(ISBLANK('Craig''s Report'!J45),"ERROR",IF(ABS('Craig''s Report'!J45-'Craig''s Report'!K39)&lt;0.5,"Correct","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="K45" s="278"/>
-      <c r="L45" s="279"/>
-      <c r="M45" s="279"/>
-      <c r="N45" s="279"/>
-      <c r="O45" s="280"/>
+      <c r="K45" s="255"/>
+      <c r="L45" s="256"/>
+      <c r="M45" s="256"/>
+      <c r="N45" s="256"/>
+      <c r="O45" s="257"/>
       <c r="P45" s="155"/>
       <c r="Q45" s="156"/>
       <c r="R45" s="157"/>
@@ -54861,11 +54861,11 @@
         <f>IF(ISBLANK('Craig''s Report'!J46),"ERROR",IF(ABS('Craig''s Report'!J46-'Craig''s Report'!L39)&lt;0.5,"Correct","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="K46" s="278"/>
-      <c r="L46" s="279"/>
-      <c r="M46" s="279"/>
-      <c r="N46" s="279"/>
-      <c r="O46" s="280"/>
+      <c r="K46" s="255"/>
+      <c r="L46" s="256"/>
+      <c r="M46" s="256"/>
+      <c r="N46" s="256"/>
+      <c r="O46" s="257"/>
       <c r="P46" s="155"/>
       <c r="Q46" s="156"/>
       <c r="R46" s="157"/>
@@ -55372,11 +55372,11 @@
         <f>IF(ISBLANK('Craig''s Report'!J47),"ERROR",IF(ABS('Craig''s Report'!J47-'Craig''s Report'!M39)&lt;0.5,"Correct","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="K47" s="278"/>
-      <c r="L47" s="279"/>
-      <c r="M47" s="279"/>
-      <c r="N47" s="279"/>
-      <c r="O47" s="280"/>
+      <c r="K47" s="255"/>
+      <c r="L47" s="256"/>
+      <c r="M47" s="256"/>
+      <c r="N47" s="256"/>
+      <c r="O47" s="257"/>
       <c r="P47" s="155"/>
       <c r="Q47" s="156"/>
       <c r="R47" s="157"/>
@@ -55883,11 +55883,11 @@
         <f>IF(ISBLANK('Craig''s Report'!J48),"ERROR",IF(ABS('Craig''s Report'!J48-'Craig''s Report'!N39)&lt;1,"Correct","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="K48" s="278"/>
-      <c r="L48" s="279"/>
-      <c r="M48" s="279"/>
-      <c r="N48" s="279"/>
-      <c r="O48" s="280"/>
+      <c r="K48" s="255"/>
+      <c r="L48" s="256"/>
+      <c r="M48" s="256"/>
+      <c r="N48" s="256"/>
+      <c r="O48" s="257"/>
       <c r="P48" s="155"/>
       <c r="Q48" s="156"/>
       <c r="R48" s="157"/>
@@ -56387,11 +56387,11 @@
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="122"/>
-      <c r="K49" s="278"/>
-      <c r="L49" s="279"/>
-      <c r="M49" s="279"/>
-      <c r="N49" s="279"/>
-      <c r="O49" s="280"/>
+      <c r="K49" s="255"/>
+      <c r="L49" s="256"/>
+      <c r="M49" s="256"/>
+      <c r="N49" s="256"/>
+      <c r="O49" s="257"/>
       <c r="P49" s="155"/>
       <c r="Q49" s="156"/>
       <c r="R49" s="157"/>
@@ -56891,11 +56891,11 @@
       <c r="H50" s="122"/>
       <c r="I50" s="122"/>
       <c r="J50" s="158"/>
-      <c r="K50" s="278"/>
-      <c r="L50" s="279"/>
-      <c r="M50" s="279"/>
-      <c r="N50" s="279"/>
-      <c r="O50" s="280"/>
+      <c r="K50" s="255"/>
+      <c r="L50" s="256"/>
+      <c r="M50" s="256"/>
+      <c r="N50" s="256"/>
+      <c r="O50" s="257"/>
       <c r="P50" s="155"/>
       <c r="Q50" s="156"/>
       <c r="R50" s="157"/>
@@ -57395,11 +57395,11 @@
       <c r="H51" s="122"/>
       <c r="I51" s="122"/>
       <c r="J51" s="158"/>
-      <c r="K51" s="278"/>
-      <c r="L51" s="279"/>
-      <c r="M51" s="279"/>
-      <c r="N51" s="279"/>
-      <c r="O51" s="280"/>
+      <c r="K51" s="255"/>
+      <c r="L51" s="256"/>
+      <c r="M51" s="256"/>
+      <c r="N51" s="256"/>
+      <c r="O51" s="257"/>
       <c r="P51" s="155"/>
       <c r="Q51" s="156"/>
       <c r="R51" s="157"/>
@@ -57899,11 +57899,11 @@
       <c r="H52" s="122"/>
       <c r="I52" s="158"/>
       <c r="J52" s="158"/>
-      <c r="K52" s="281"/>
-      <c r="L52" s="282"/>
-      <c r="M52" s="282"/>
-      <c r="N52" s="282"/>
-      <c r="O52" s="283"/>
+      <c r="K52" s="258"/>
+      <c r="L52" s="259"/>
+      <c r="M52" s="259"/>
+      <c r="N52" s="259"/>
+      <c r="O52" s="260"/>
       <c r="P52" s="155"/>
       <c r="Q52" s="156"/>
       <c r="R52" s="157"/>
@@ -58903,7 +58903,7 @@
       <c r="D54" s="135"/>
       <c r="E54" s="122"/>
       <c r="F54" s="122"/>
-      <c r="G54" s="226" t="s">
+      <c r="G54" s="216" t="s">
         <v>66</v>
       </c>
       <c r="H54" s="122"/>
@@ -59409,7 +59409,7 @@
       <c r="D55" s="135"/>
       <c r="E55" s="122"/>
       <c r="F55" s="122"/>
-      <c r="G55" s="227"/>
+      <c r="G55" s="217"/>
       <c r="H55" s="151" t="s">
         <v>22</v>
       </c>
@@ -59419,13 +59419,13 @@
       <c r="J55" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="K55" s="275" t="s">
+      <c r="K55" s="252" t="s">
         <v>73</v>
       </c>
-      <c r="L55" s="276"/>
-      <c r="M55" s="276"/>
-      <c r="N55" s="276"/>
-      <c r="O55" s="277"/>
+      <c r="L55" s="253"/>
+      <c r="M55" s="253"/>
+      <c r="N55" s="253"/>
+      <c r="O55" s="254"/>
       <c r="P55" s="147"/>
       <c r="Q55" s="148"/>
       <c r="R55" s="149"/>
@@ -59921,7 +59921,7 @@
       <c r="D56" s="135"/>
       <c r="E56" s="122"/>
       <c r="F56" s="122"/>
-      <c r="G56" s="228"/>
+      <c r="G56" s="218"/>
       <c r="H56" s="154" t="s">
         <v>3</v>
       </c>
@@ -59931,11 +59931,11 @@
       <c r="J56" s="89">
         <v>54345</v>
       </c>
-      <c r="K56" s="278"/>
-      <c r="L56" s="279"/>
-      <c r="M56" s="279"/>
-      <c r="N56" s="279"/>
-      <c r="O56" s="280"/>
+      <c r="K56" s="255"/>
+      <c r="L56" s="256"/>
+      <c r="M56" s="256"/>
+      <c r="N56" s="256"/>
+      <c r="O56" s="257"/>
       <c r="P56" s="147"/>
       <c r="Q56" s="148"/>
       <c r="R56" s="149"/>
@@ -60441,11 +60441,11 @@
       <c r="J57" s="90">
         <v>67321</v>
       </c>
-      <c r="K57" s="278"/>
-      <c r="L57" s="279"/>
-      <c r="M57" s="279"/>
-      <c r="N57" s="279"/>
-      <c r="O57" s="280"/>
+      <c r="K57" s="255"/>
+      <c r="L57" s="256"/>
+      <c r="M57" s="256"/>
+      <c r="N57" s="256"/>
+      <c r="O57" s="257"/>
       <c r="P57" s="147"/>
       <c r="Q57" s="148"/>
       <c r="R57" s="149"/>
@@ -60951,11 +60951,11 @@
       <c r="J58" s="90">
         <v>86911</v>
       </c>
-      <c r="K58" s="278"/>
-      <c r="L58" s="279"/>
-      <c r="M58" s="279"/>
-      <c r="N58" s="279"/>
-      <c r="O58" s="280"/>
+      <c r="K58" s="255"/>
+      <c r="L58" s="256"/>
+      <c r="M58" s="256"/>
+      <c r="N58" s="256"/>
+      <c r="O58" s="257"/>
       <c r="P58" s="147"/>
       <c r="Q58" s="148"/>
       <c r="R58" s="149"/>
@@ -61461,11 +61461,11 @@
       <c r="J59" s="90">
         <v>105222</v>
       </c>
-      <c r="K59" s="278"/>
-      <c r="L59" s="279"/>
-      <c r="M59" s="279"/>
-      <c r="N59" s="279"/>
-      <c r="O59" s="280"/>
+      <c r="K59" s="255"/>
+      <c r="L59" s="256"/>
+      <c r="M59" s="256"/>
+      <c r="N59" s="256"/>
+      <c r="O59" s="257"/>
       <c r="P59" s="147"/>
       <c r="Q59" s="148"/>
       <c r="R59" s="149"/>
@@ -61503,11 +61503,11 @@
       <c r="J60" s="90">
         <v>110315</v>
       </c>
-      <c r="K60" s="278"/>
-      <c r="L60" s="279"/>
-      <c r="M60" s="279"/>
-      <c r="N60" s="279"/>
-      <c r="O60" s="280"/>
+      <c r="K60" s="255"/>
+      <c r="L60" s="256"/>
+      <c r="M60" s="256"/>
+      <c r="N60" s="256"/>
+      <c r="O60" s="257"/>
       <c r="P60" s="147"/>
       <c r="Q60" s="148"/>
       <c r="R60" s="149"/>
@@ -61545,11 +61545,11 @@
       <c r="J61" s="90">
         <v>133153</v>
       </c>
-      <c r="K61" s="278"/>
-      <c r="L61" s="279"/>
-      <c r="M61" s="279"/>
-      <c r="N61" s="279"/>
-      <c r="O61" s="280"/>
+      <c r="K61" s="255"/>
+      <c r="L61" s="256"/>
+      <c r="M61" s="256"/>
+      <c r="N61" s="256"/>
+      <c r="O61" s="257"/>
       <c r="P61" s="147"/>
       <c r="Q61" s="148"/>
       <c r="R61" s="149"/>
@@ -61587,11 +61587,11 @@
       <c r="J62" s="90">
         <v>156213</v>
       </c>
-      <c r="K62" s="278"/>
-      <c r="L62" s="279"/>
-      <c r="M62" s="279"/>
-      <c r="N62" s="279"/>
-      <c r="O62" s="280"/>
+      <c r="K62" s="255"/>
+      <c r="L62" s="256"/>
+      <c r="M62" s="256"/>
+      <c r="N62" s="256"/>
+      <c r="O62" s="257"/>
       <c r="P62" s="147"/>
       <c r="Q62" s="148"/>
       <c r="R62" s="149"/>
@@ -61629,11 +61629,11 @@
       <c r="J63" s="90">
         <v>168158</v>
       </c>
-      <c r="K63" s="278"/>
-      <c r="L63" s="279"/>
-      <c r="M63" s="279"/>
-      <c r="N63" s="279"/>
-      <c r="O63" s="280"/>
+      <c r="K63" s="255"/>
+      <c r="L63" s="256"/>
+      <c r="M63" s="256"/>
+      <c r="N63" s="256"/>
+      <c r="O63" s="257"/>
       <c r="P63" s="147"/>
       <c r="Q63" s="148"/>
       <c r="R63" s="149"/>
@@ -61671,11 +61671,11 @@
       <c r="J64" s="90">
         <v>135859</v>
       </c>
-      <c r="K64" s="278"/>
-      <c r="L64" s="279"/>
-      <c r="M64" s="279"/>
-      <c r="N64" s="279"/>
-      <c r="O64" s="280"/>
+      <c r="K64" s="255"/>
+      <c r="L64" s="256"/>
+      <c r="M64" s="256"/>
+      <c r="N64" s="256"/>
+      <c r="O64" s="257"/>
       <c r="P64" s="147"/>
       <c r="Q64" s="148"/>
       <c r="R64" s="149"/>
@@ -61713,11 +61713,11 @@
       <c r="J65" s="90">
         <v>93628</v>
       </c>
-      <c r="K65" s="281"/>
-      <c r="L65" s="282"/>
-      <c r="M65" s="282"/>
-      <c r="N65" s="282"/>
-      <c r="O65" s="283"/>
+      <c r="K65" s="258"/>
+      <c r="L65" s="259"/>
+      <c r="M65" s="259"/>
+      <c r="N65" s="259"/>
+      <c r="O65" s="260"/>
       <c r="P65" s="147"/>
       <c r="Q65" s="148"/>
       <c r="R65" s="149"/>
@@ -67693,13 +67693,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="XHAJs8RPgabjEmrLYKw0b5SoWUFRdneoM0TZtOX6gZzrLmxyAjK8f8Zv8CYHuu4KOCiUzlDi0TRQ9ebF646wXQ==" saltValue="MX3lXliAZDpu7CzXyaKa+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="23">
-    <mergeCell ref="J23:L30"/>
-    <mergeCell ref="H28:I30"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="K42:O52"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="K55:O65"/>
-    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I12:L20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V4:AF4"/>
@@ -67709,13 +67709,13 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I2:P3"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="I12:L20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="J23:L30"/>
+    <mergeCell ref="H28:I30"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="K42:O52"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="K55:O65"/>
+    <mergeCell ref="G22:G24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="P30:U32 J35:L35 J7:M34">
@@ -67767,21 +67767,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002EE9427BAFDC4142A85C63EA4F6ED86E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3aefba5758486f11fc3a0c5d0e35bd0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0acb5147-8577-475e-9c5c-8643af49afee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9f6208de9fe288a9025870c70b3201d" ns3:_="">
     <xsd:import namespace="0acb5147-8577-475e-9c5c-8643af49afee"/>
@@ -67965,31 +67950,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3533D911-D796-4071-AC74-071CC6A2DC30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0acb5147-8577-475e-9c5c-8643af49afee"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A593444-2314-462F-A12C-2BFD40612080}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DEA5AAF-F304-4B7E-9A62-AE7755B47D61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68005,4 +67981,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A593444-2314-462F-A12C-2BFD40612080}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3533D911-D796-4071-AC74-071CC6A2DC30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0acb5147-8577-475e-9c5c-8643af49afee"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExcelFiles/CraigsReportCaseStudy.xlsx
+++ b/ExcelFiles/CraigsReportCaseStudy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/curtisgn_byui_edu/Documents/Course Lead/108/Math108XWebsite/math108x/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_6E02BB2A03CD484BB3BEC2D90113893767994AF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1210C4-AB85-4738-98A3-7E5D0BE825C4}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_6E02BB2A03CD484BB3BEC2D90113893767994AF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12DE85AF-1E81-4315-AFF7-5C29910DE58B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,7 +724,7 @@
     <t>Type in the remaining U.S Census Bureau data and recreate a more appropriate bar chart than the one given to summarize that data.</t>
   </si>
   <si>
-    <t>Spring 2023</t>
+    <t>Fall 2023</t>
   </si>
 </sst>
 </file>
@@ -2176,6 +2176,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2371,36 +2402,74 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2462,75 +2531,6 @@
     <xf numFmtId="0" fontId="29" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
@@ -2543,6 +2543,16 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2580,16 +2590,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4711,7 +4711,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5752,7 +5752,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:effectLst>
                   <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="000000">
@@ -5818,7 +5818,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:effectLst>
                   <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="000000">
@@ -5884,7 +5884,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:effectLst>
                   <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="000000">
@@ -5950,7 +5950,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:effectLst>
                   <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="000000">
@@ -6371,7 +6371,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -6415,7 +6415,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -6512,10 +6512,10 @@
     </row>
     <row r="2" spans="1:502 5589:5589" s="7" customFormat="1" ht="46.5" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="C2" s="234" t="s">
+      <c r="C2" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="235"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="33"/>
       <c r="F2" s="9"/>
       <c r="G2" s="20"/>
@@ -6552,7 +6552,7 @@
       <c r="I3" s="19"/>
       <c r="Q3" s="49"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="207" t="s">
+      <c r="U3" s="217" t="s">
         <v>10</v>
       </c>
       <c r="V3" s="16"/>
@@ -6590,20 +6590,20 @@
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
       <c r="T4" s="38"/>
-      <c r="U4" s="208"/>
-      <c r="V4" s="231" t="s">
+      <c r="U4" s="218"/>
+      <c r="V4" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="232"/>
-      <c r="X4" s="232"/>
-      <c r="Y4" s="232"/>
-      <c r="Z4" s="232"/>
-      <c r="AA4" s="232"/>
-      <c r="AB4" s="232"/>
-      <c r="AC4" s="232"/>
-      <c r="AD4" s="232"/>
-      <c r="AE4" s="232"/>
-      <c r="AF4" s="233"/>
+      <c r="W4" s="179"/>
+      <c r="X4" s="179"/>
+      <c r="Y4" s="179"/>
+      <c r="Z4" s="179"/>
+      <c r="AA4" s="179"/>
+      <c r="AB4" s="179"/>
+      <c r="AC4" s="179"/>
+      <c r="AD4" s="179"/>
+      <c r="AE4" s="179"/>
+      <c r="AF4" s="180"/>
       <c r="AG4" s="38"/>
       <c r="AH4" s="21"/>
     </row>
@@ -6611,7 +6611,7 @@
       <c r="A5" s="21"/>
       <c r="C5" s="12"/>
       <c r="D5" s="42"/>
-      <c r="G5" s="209" t="s">
+      <c r="G5" s="219" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2"/>
@@ -6633,31 +6633,31 @@
       <c r="C6" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="205" t="s">
+      <c r="D6" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="209"/>
+      <c r="G6" s="219"/>
       <c r="H6" s="66"/>
       <c r="I6" s="67"/>
       <c r="J6" s="68"/>
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
-      <c r="M6" s="210" t="s">
+      <c r="M6" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="211"/>
-      <c r="O6" s="211"/>
-      <c r="P6" s="211"/>
-      <c r="Q6" s="211"/>
-      <c r="R6" s="211"/>
-      <c r="S6" s="211"/>
+      <c r="N6" s="221"/>
+      <c r="O6" s="221"/>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="221"/>
+      <c r="R6" s="221"/>
+      <c r="S6" s="221"/>
       <c r="AH6" s="21"/>
     </row>
     <row r="7" spans="1:502 5589:5589" ht="21" customHeight="1">
       <c r="A7" s="21"/>
       <c r="C7" s="44"/>
-      <c r="D7" s="206"/>
-      <c r="G7" s="209"/>
+      <c r="D7" s="216"/>
+      <c r="G7" s="219"/>
       <c r="H7" s="166" t="s">
         <v>85</v>
       </c>
@@ -6726,7 +6726,7 @@
       <c r="C8" s="44"/>
       <c r="D8" s="42"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="239"/>
+      <c r="F8" s="186"/>
       <c r="G8" s="2"/>
       <c r="H8" s="168" t="s">
         <v>17</v>
@@ -7238,11 +7238,11 @@
       <c r="C9" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="205" t="s">
+      <c r="D9" s="215" t="s">
         <v>87</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="240"/>
+      <c r="F9" s="187"/>
       <c r="G9" s="5"/>
       <c r="H9" s="168" t="s">
         <v>18</v>
@@ -7752,9 +7752,9 @@
       <c r="A10" s="26"/>
       <c r="B10" s="8"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="206"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="240"/>
+      <c r="F10" s="187"/>
       <c r="G10" s="5"/>
       <c r="H10" s="168" t="s">
         <v>19</v>
@@ -8778,19 +8778,19 @@
       <c r="C12" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="236" t="s">
+      <c r="D12" s="183" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="239"/>
+      <c r="F12" s="186"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="219" t="s">
+      <c r="I12" s="229" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="220"/>
-      <c r="K12" s="220"/>
-      <c r="L12" s="221"/>
+      <c r="J12" s="230"/>
+      <c r="K12" s="230"/>
+      <c r="L12" s="231"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -9285,15 +9285,15 @@
       <c r="A13" s="26"/>
       <c r="B13" s="8"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="237"/>
+      <c r="D13" s="184"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="240"/>
+      <c r="F13" s="187"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="222"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="223"/>
-      <c r="L13" s="224"/>
+      <c r="I13" s="232"/>
+      <c r="J13" s="233"/>
+      <c r="K13" s="233"/>
+      <c r="L13" s="234"/>
       <c r="M13" s="55"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -9789,15 +9789,15 @@
       <c r="A14" s="26"/>
       <c r="B14" s="8"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="238"/>
+      <c r="D14" s="185"/>
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="222"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="223"/>
-      <c r="L14" s="224"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="233"/>
+      <c r="K14" s="233"/>
+      <c r="L14" s="234"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -10298,10 +10298,10 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="222"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="223"/>
-      <c r="L15" s="224"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="233"/>
+      <c r="K15" s="233"/>
+      <c r="L15" s="234"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -10799,17 +10799,17 @@
       <c r="C16" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="212" t="s">
+      <c r="D16" s="222" t="s">
         <v>77</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="223"/>
-      <c r="K16" s="223"/>
-      <c r="L16" s="224"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="233"/>
+      <c r="L16" s="234"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -11305,15 +11305,15 @@
       <c r="A17" s="26"/>
       <c r="B17" s="8"/>
       <c r="C17" s="45"/>
-      <c r="D17" s="213"/>
+      <c r="D17" s="223"/>
       <c r="E17" s="8"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="224"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="233"/>
+      <c r="L17" s="234"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -11814,10 +11814,10 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="222"/>
-      <c r="J18" s="223"/>
-      <c r="K18" s="223"/>
-      <c r="L18" s="224"/>
+      <c r="I18" s="232"/>
+      <c r="J18" s="233"/>
+      <c r="K18" s="233"/>
+      <c r="L18" s="234"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -12315,17 +12315,17 @@
       <c r="C19" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="228" t="s">
+      <c r="D19" s="238" t="s">
         <v>86</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="222"/>
-      <c r="J19" s="223"/>
-      <c r="K19" s="223"/>
-      <c r="L19" s="224"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="233"/>
+      <c r="L19" s="234"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -12821,15 +12821,15 @@
       <c r="A20" s="26"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="229"/>
+      <c r="D20" s="239"/>
       <c r="E20" s="8"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="225"/>
-      <c r="J20" s="226"/>
-      <c r="K20" s="226"/>
-      <c r="L20" s="227"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="236"/>
+      <c r="L20" s="237"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -13325,7 +13325,7 @@
       <c r="A21" s="26"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="229"/>
+      <c r="D21" s="239"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -13829,10 +13829,10 @@
       <c r="A22" s="26"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="229"/>
+      <c r="D22" s="239"/>
       <c r="E22" s="8"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="209" t="s">
+      <c r="G22" s="219" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="5"/>
@@ -14335,21 +14335,21 @@
       <c r="A23" s="26"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="229"/>
+      <c r="D23" s="239"/>
       <c r="E23" s="8"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="209"/>
+      <c r="G23" s="219"/>
       <c r="H23" s="151" t="s">
         <v>55</v>
       </c>
       <c r="I23" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="187" t="s">
+      <c r="J23" s="197" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="188"/>
-      <c r="L23" s="189"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="199"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -14845,19 +14845,19 @@
       <c r="A24" s="26"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="229"/>
+      <c r="D24" s="239"/>
       <c r="E24" s="8"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="209"/>
+      <c r="G24" s="219"/>
       <c r="H24" s="168" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="74">
         <v>85204</v>
       </c>
-      <c r="J24" s="190"/>
-      <c r="K24" s="191"/>
-      <c r="L24" s="192"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="202"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -15352,7 +15352,7 @@
     <row r="25" spans="1:502" ht="21" customHeight="1">
       <c r="A25" s="21"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="229"/>
+      <c r="D25" s="239"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="168" t="s">
@@ -15361,9 +15361,9 @@
       <c r="I25" s="74">
         <v>115229</v>
       </c>
-      <c r="J25" s="190"/>
-      <c r="K25" s="191"/>
-      <c r="L25" s="192"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="202"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -15376,7 +15376,7 @@
     <row r="26" spans="1:502" ht="21" customHeight="1">
       <c r="A26" s="21"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="230"/>
+      <c r="D26" s="240"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="168" t="s">
@@ -15385,9 +15385,9 @@
       <c r="I26" s="74">
         <v>955820</v>
       </c>
-      <c r="J26" s="190"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="192"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="202"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -15413,9 +15413,9 @@
       <c r="I27" s="74">
         <v>402517</v>
       </c>
-      <c r="J27" s="190"/>
-      <c r="K27" s="191"/>
-      <c r="L27" s="192"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="202"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -15431,13 +15431,13 @@
       <c r="D28" s="27"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="214" t="s">
+      <c r="H28" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="215"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="191"/>
-      <c r="L28" s="192"/>
+      <c r="I28" s="225"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="202"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -15494,11 +15494,11 @@
       <c r="E29" s="8"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="215"/>
-      <c r="J29" s="190"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="192"/>
+      <c r="H29" s="224"/>
+      <c r="I29" s="225"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="202"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -15998,11 +15998,11 @@
       <c r="E30" s="8"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="214"/>
-      <c r="I30" s="215"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="194"/>
-      <c r="L30" s="195"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="225"/>
+      <c r="J30" s="203"/>
+      <c r="K30" s="204"/>
+      <c r="L30" s="205"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -17005,7 +17005,7 @@
       <c r="D32" s="27"/>
       <c r="E32" s="8"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="209" t="s">
+      <c r="G32" s="219" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="5"/>
@@ -17511,7 +17511,7 @@
       <c r="D33" s="27"/>
       <c r="E33" s="8"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="209"/>
+      <c r="G33" s="219"/>
       <c r="H33" s="151"/>
       <c r="I33" s="173" t="s">
         <v>41</v>
@@ -18023,7 +18023,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="27"/>
       <c r="E34" s="8"/>
-      <c r="G34" s="209"/>
+      <c r="G34" s="219"/>
       <c r="H34" s="170" t="s">
         <v>48</v>
       </c>
@@ -22075,13 +22075,13 @@
       <c r="J42" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="K42" s="196" t="s">
+      <c r="K42" s="206" t="s">
         <v>79</v>
       </c>
-      <c r="L42" s="197"/>
-      <c r="M42" s="197"/>
-      <c r="N42" s="197"/>
-      <c r="O42" s="198"/>
+      <c r="L42" s="207"/>
+      <c r="M42" s="207"/>
+      <c r="N42" s="207"/>
+      <c r="O42" s="208"/>
       <c r="P42" s="31"/>
       <c r="Q42" s="50"/>
       <c r="R42" s="28"/>
@@ -22584,11 +22584,11 @@
         <v>3.8</v>
       </c>
       <c r="J43" s="60"/>
-      <c r="K43" s="199"/>
-      <c r="L43" s="200"/>
-      <c r="M43" s="200"/>
-      <c r="N43" s="200"/>
-      <c r="O43" s="201"/>
+      <c r="K43" s="209"/>
+      <c r="L43" s="210"/>
+      <c r="M43" s="210"/>
+      <c r="N43" s="210"/>
+      <c r="O43" s="211"/>
       <c r="P43" s="32"/>
       <c r="Q43" s="51"/>
       <c r="R43" s="30"/>
@@ -23091,11 +23091,11 @@
         <v>1.4</v>
       </c>
       <c r="J44" s="59"/>
-      <c r="K44" s="199"/>
-      <c r="L44" s="200"/>
-      <c r="M44" s="200"/>
-      <c r="N44" s="200"/>
-      <c r="O44" s="201"/>
+      <c r="K44" s="209"/>
+      <c r="L44" s="210"/>
+      <c r="M44" s="210"/>
+      <c r="N44" s="210"/>
+      <c r="O44" s="211"/>
       <c r="P44" s="32"/>
       <c r="Q44" s="51"/>
       <c r="R44" s="30"/>
@@ -23598,11 +23598,11 @@
         <v>4.3</v>
       </c>
       <c r="J45" s="59"/>
-      <c r="K45" s="199"/>
-      <c r="L45" s="200"/>
-      <c r="M45" s="200"/>
-      <c r="N45" s="200"/>
-      <c r="O45" s="201"/>
+      <c r="K45" s="209"/>
+      <c r="L45" s="210"/>
+      <c r="M45" s="210"/>
+      <c r="N45" s="210"/>
+      <c r="O45" s="211"/>
       <c r="P45" s="32"/>
       <c r="Q45" s="51"/>
       <c r="R45" s="30"/>
@@ -24105,11 +24105,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J46" s="59"/>
-      <c r="K46" s="199"/>
-      <c r="L46" s="200"/>
-      <c r="M46" s="200"/>
-      <c r="N46" s="200"/>
-      <c r="O46" s="201"/>
+      <c r="K46" s="209"/>
+      <c r="L46" s="210"/>
+      <c r="M46" s="210"/>
+      <c r="N46" s="210"/>
+      <c r="O46" s="211"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="51"/>
       <c r="R46" s="30"/>
@@ -24612,11 +24612,11 @@
         <v>3.6</v>
       </c>
       <c r="J47" s="59"/>
-      <c r="K47" s="199"/>
-      <c r="L47" s="200"/>
-      <c r="M47" s="200"/>
-      <c r="N47" s="200"/>
-      <c r="O47" s="201"/>
+      <c r="K47" s="209"/>
+      <c r="L47" s="210"/>
+      <c r="M47" s="210"/>
+      <c r="N47" s="210"/>
+      <c r="O47" s="211"/>
       <c r="P47" s="32"/>
       <c r="Q47" s="51"/>
       <c r="R47" s="30"/>
@@ -25119,11 +25119,11 @@
         <v>3.5</v>
       </c>
       <c r="J48" s="59"/>
-      <c r="K48" s="199"/>
-      <c r="L48" s="200"/>
-      <c r="M48" s="200"/>
-      <c r="N48" s="200"/>
-      <c r="O48" s="201"/>
+      <c r="K48" s="209"/>
+      <c r="L48" s="210"/>
+      <c r="M48" s="210"/>
+      <c r="N48" s="210"/>
+      <c r="O48" s="211"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="51"/>
       <c r="R48" s="30"/>
@@ -25622,11 +25622,11 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="199"/>
-      <c r="L49" s="200"/>
-      <c r="M49" s="200"/>
-      <c r="N49" s="200"/>
-      <c r="O49" s="201"/>
+      <c r="K49" s="209"/>
+      <c r="L49" s="210"/>
+      <c r="M49" s="210"/>
+      <c r="N49" s="210"/>
+      <c r="O49" s="211"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="51"/>
       <c r="R49" s="30"/>
@@ -26125,11 +26125,11 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="61"/>
-      <c r="K50" s="199"/>
-      <c r="L50" s="200"/>
-      <c r="M50" s="200"/>
-      <c r="N50" s="200"/>
-      <c r="O50" s="201"/>
+      <c r="K50" s="209"/>
+      <c r="L50" s="210"/>
+      <c r="M50" s="210"/>
+      <c r="N50" s="210"/>
+      <c r="O50" s="211"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="51"/>
       <c r="R50" s="30"/>
@@ -26628,11 +26628,11 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="61"/>
-      <c r="K51" s="199"/>
-      <c r="L51" s="200"/>
-      <c r="M51" s="200"/>
-      <c r="N51" s="200"/>
-      <c r="O51" s="201"/>
+      <c r="K51" s="209"/>
+      <c r="L51" s="210"/>
+      <c r="M51" s="210"/>
+      <c r="N51" s="210"/>
+      <c r="O51" s="211"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="51"/>
       <c r="R51" s="30"/>
@@ -27131,11 +27131,11 @@
       <c r="H52" s="8"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
-      <c r="K52" s="202"/>
-      <c r="L52" s="203"/>
-      <c r="M52" s="203"/>
-      <c r="N52" s="203"/>
-      <c r="O52" s="204"/>
+      <c r="K52" s="212"/>
+      <c r="L52" s="213"/>
+      <c r="M52" s="213"/>
+      <c r="N52" s="213"/>
+      <c r="O52" s="214"/>
       <c r="P52" s="32"/>
       <c r="Q52" s="51"/>
       <c r="R52" s="30"/>
@@ -28131,7 +28131,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="27"/>
       <c r="E54" s="8"/>
-      <c r="G54" s="216" t="s">
+      <c r="G54" s="226" t="s">
         <v>66</v>
       </c>
       <c r="H54" s="8"/>
@@ -28634,7 +28634,7 @@
       <c r="C55" s="8"/>
       <c r="D55" s="27"/>
       <c r="E55" s="8"/>
-      <c r="G55" s="217"/>
+      <c r="G55" s="227"/>
       <c r="H55" s="151" t="s">
         <v>22</v>
       </c>
@@ -28644,13 +28644,13 @@
       <c r="J55" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="K55" s="178" t="s">
+      <c r="K55" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="L55" s="179"/>
-      <c r="M55" s="179"/>
-      <c r="N55" s="179"/>
-      <c r="O55" s="180"/>
+      <c r="L55" s="189"/>
+      <c r="M55" s="189"/>
+      <c r="N55" s="189"/>
+      <c r="O55" s="190"/>
       <c r="P55" s="31"/>
       <c r="Q55" s="50"/>
       <c r="R55" s="28"/>
@@ -29145,7 +29145,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="27"/>
       <c r="E56" s="8"/>
-      <c r="G56" s="218"/>
+      <c r="G56" s="228"/>
       <c r="H56" s="168" t="s">
         <v>3</v>
       </c>
@@ -29155,11 +29155,11 @@
       <c r="J56" s="80">
         <v>54345</v>
       </c>
-      <c r="K56" s="181"/>
-      <c r="L56" s="182"/>
-      <c r="M56" s="182"/>
-      <c r="N56" s="182"/>
-      <c r="O56" s="183"/>
+      <c r="K56" s="191"/>
+      <c r="L56" s="192"/>
+      <c r="M56" s="192"/>
+      <c r="N56" s="192"/>
+      <c r="O56" s="193"/>
       <c r="P56" s="31"/>
       <c r="Q56" s="50"/>
       <c r="R56" s="28"/>
@@ -29664,11 +29664,11 @@
       <c r="J57" s="81">
         <v>67321</v>
       </c>
-      <c r="K57" s="181"/>
-      <c r="L57" s="182"/>
-      <c r="M57" s="182"/>
-      <c r="N57" s="182"/>
-      <c r="O57" s="183"/>
+      <c r="K57" s="191"/>
+      <c r="L57" s="192"/>
+      <c r="M57" s="192"/>
+      <c r="N57" s="192"/>
+      <c r="O57" s="193"/>
       <c r="P57" s="31"/>
       <c r="Q57" s="50"/>
       <c r="R57" s="28"/>
@@ -30173,11 +30173,11 @@
       <c r="J58" s="81">
         <v>86911</v>
       </c>
-      <c r="K58" s="181"/>
-      <c r="L58" s="182"/>
-      <c r="M58" s="182"/>
-      <c r="N58" s="182"/>
-      <c r="O58" s="183"/>
+      <c r="K58" s="191"/>
+      <c r="L58" s="192"/>
+      <c r="M58" s="192"/>
+      <c r="N58" s="192"/>
+      <c r="O58" s="193"/>
       <c r="P58" s="31"/>
       <c r="Q58" s="50"/>
       <c r="R58" s="28"/>
@@ -30683,11 +30683,11 @@
       <c r="J59" s="81">
         <v>105222</v>
       </c>
-      <c r="K59" s="181"/>
-      <c r="L59" s="182"/>
-      <c r="M59" s="182"/>
-      <c r="N59" s="182"/>
-      <c r="O59" s="183"/>
+      <c r="K59" s="191"/>
+      <c r="L59" s="192"/>
+      <c r="M59" s="192"/>
+      <c r="N59" s="192"/>
+      <c r="O59" s="193"/>
       <c r="P59" s="31"/>
       <c r="Q59" s="50"/>
       <c r="R59" s="28"/>
@@ -30725,11 +30725,11 @@
       <c r="J60" s="81">
         <v>110315</v>
       </c>
-      <c r="K60" s="181"/>
-      <c r="L60" s="182"/>
-      <c r="M60" s="182"/>
-      <c r="N60" s="182"/>
-      <c r="O60" s="183"/>
+      <c r="K60" s="191"/>
+      <c r="L60" s="192"/>
+      <c r="M60" s="192"/>
+      <c r="N60" s="192"/>
+      <c r="O60" s="193"/>
       <c r="P60" s="31"/>
       <c r="Q60" s="50"/>
       <c r="R60" s="28"/>
@@ -30767,11 +30767,11 @@
       <c r="J61" s="81">
         <v>133153</v>
       </c>
-      <c r="K61" s="181"/>
-      <c r="L61" s="182"/>
-      <c r="M61" s="182"/>
-      <c r="N61" s="182"/>
-      <c r="O61" s="183"/>
+      <c r="K61" s="191"/>
+      <c r="L61" s="192"/>
+      <c r="M61" s="192"/>
+      <c r="N61" s="192"/>
+      <c r="O61" s="193"/>
       <c r="P61" s="31"/>
       <c r="Q61" s="50"/>
       <c r="R61" s="28"/>
@@ -30809,11 +30809,11 @@
       <c r="J62" s="81">
         <v>156213</v>
       </c>
-      <c r="K62" s="181"/>
-      <c r="L62" s="182"/>
-      <c r="M62" s="182"/>
-      <c r="N62" s="182"/>
-      <c r="O62" s="183"/>
+      <c r="K62" s="191"/>
+      <c r="L62" s="192"/>
+      <c r="M62" s="192"/>
+      <c r="N62" s="192"/>
+      <c r="O62" s="193"/>
       <c r="P62" s="31"/>
       <c r="Q62" s="50"/>
       <c r="R62" s="28"/>
@@ -30851,11 +30851,11 @@
       <c r="J63" s="81">
         <v>168158</v>
       </c>
-      <c r="K63" s="181"/>
-      <c r="L63" s="182"/>
-      <c r="M63" s="182"/>
-      <c r="N63" s="182"/>
-      <c r="O63" s="183"/>
+      <c r="K63" s="191"/>
+      <c r="L63" s="192"/>
+      <c r="M63" s="192"/>
+      <c r="N63" s="192"/>
+      <c r="O63" s="193"/>
       <c r="P63" s="31"/>
       <c r="Q63" s="50"/>
       <c r="R63" s="28"/>
@@ -30893,11 +30893,11 @@
       <c r="J64" s="81">
         <v>135859</v>
       </c>
-      <c r="K64" s="181"/>
-      <c r="L64" s="182"/>
-      <c r="M64" s="182"/>
-      <c r="N64" s="182"/>
-      <c r="O64" s="183"/>
+      <c r="K64" s="191"/>
+      <c r="L64" s="192"/>
+      <c r="M64" s="192"/>
+      <c r="N64" s="192"/>
+      <c r="O64" s="193"/>
       <c r="P64" s="31"/>
       <c r="Q64" s="50"/>
       <c r="R64" s="28"/>
@@ -30935,11 +30935,11 @@
       <c r="J65" s="81">
         <v>93628</v>
       </c>
-      <c r="K65" s="184"/>
-      <c r="L65" s="185"/>
-      <c r="M65" s="185"/>
-      <c r="N65" s="185"/>
-      <c r="O65" s="186"/>
+      <c r="K65" s="194"/>
+      <c r="L65" s="195"/>
+      <c r="M65" s="195"/>
+      <c r="N65" s="195"/>
+      <c r="O65" s="196"/>
       <c r="P65" s="31"/>
       <c r="Q65" s="50"/>
       <c r="R65" s="28"/>
@@ -36887,11 +36887,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="+QrPHHFeJ2y8YE3i0POWftRC0OiOyuNh3OJVoaFeUa6AtFsOevkmafr1QdmC0ZWKBqUrx08YB56uLnobai4gVA==" saltValue="vdW1H2djaNrvaiHQjOVh8w==" spinCount="100000" sheet="1"/>
   <mergeCells count="20">
-    <mergeCell ref="V4:AF4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="K55:O65"/>
     <mergeCell ref="J23:L30"/>
     <mergeCell ref="K42:O52"/>
@@ -36907,6 +36902,11 @@
     <mergeCell ref="G54:G56"/>
     <mergeCell ref="I12:L20"/>
     <mergeCell ref="D19:D26"/>
+    <mergeCell ref="V4:AF4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -37009,29 +37009,29 @@
     <row r="2" spans="1:502" s="7" customFormat="1" ht="46.5" customHeight="1">
       <c r="A2" s="91"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="262" t="s">
+      <c r="C2" s="252" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="262"/>
+      <c r="D2" s="252"/>
       <c r="E2" s="98"/>
-      <c r="F2" s="272">
+      <c r="F2" s="261">
         <f>COUNTIF(G4:T66,"ERROR")</f>
         <v>20</v>
       </c>
-      <c r="G2" s="272"/>
+      <c r="G2" s="261"/>
       <c r="H2" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="274" t="s">
+      <c r="I2" s="263" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="274"/>
-      <c r="K2" s="274"/>
-      <c r="L2" s="274"/>
-      <c r="M2" s="274"/>
-      <c r="N2" s="274"/>
-      <c r="O2" s="274"/>
-      <c r="P2" s="274"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
       <c r="Q2" s="100"/>
       <c r="R2" s="97"/>
       <c r="S2" s="97"/>
@@ -37062,27 +37062,27 @@
         <v>61</v>
       </c>
       <c r="E3" s="98"/>
-      <c r="F3" s="273">
+      <c r="F3" s="262">
         <f>COUNTIF(G4:T66,"Correct")</f>
         <v>2</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="262"/>
       <c r="H3" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="274"/>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="274"/>
-      <c r="N3" s="274"/>
-      <c r="O3" s="274"/>
-      <c r="P3" s="274"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="263"/>
       <c r="Q3" s="100"/>
       <c r="R3" s="97"/>
       <c r="S3" s="97"/>
       <c r="T3" s="101"/>
-      <c r="U3" s="263" t="s">
+      <c r="U3" s="253" t="s">
         <v>10</v>
       </c>
       <c r="V3" s="101"/>
@@ -37126,20 +37126,20 @@
       <c r="R4" s="97"/>
       <c r="S4" s="97"/>
       <c r="T4" s="109"/>
-      <c r="U4" s="264"/>
-      <c r="V4" s="265" t="s">
+      <c r="U4" s="254"/>
+      <c r="V4" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="266"/>
-      <c r="X4" s="266"/>
-      <c r="Y4" s="266"/>
-      <c r="Z4" s="266"/>
-      <c r="AA4" s="266"/>
-      <c r="AB4" s="266"/>
-      <c r="AC4" s="266"/>
-      <c r="AD4" s="266"/>
-      <c r="AE4" s="266"/>
-      <c r="AF4" s="267"/>
+      <c r="W4" s="256"/>
+      <c r="X4" s="256"/>
+      <c r="Y4" s="256"/>
+      <c r="Z4" s="256"/>
+      <c r="AA4" s="256"/>
+      <c r="AB4" s="256"/>
+      <c r="AC4" s="256"/>
+      <c r="AD4" s="256"/>
+      <c r="AE4" s="256"/>
+      <c r="AF4" s="257"/>
       <c r="AG4" s="109"/>
       <c r="AH4" s="91"/>
       <c r="DT4" s="17"/>
@@ -37151,7 +37151,7 @@
       <c r="D5" s="111"/>
       <c r="E5" s="97"/>
       <c r="F5" s="104"/>
-      <c r="G5" s="261" t="s">
+      <c r="G5" s="258" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="97"/>
@@ -37191,27 +37191,27 @@
       <c r="C6" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="268" t="str">
+      <c r="D6" s="243" t="str">
         <f>'Craig''s Report'!D6:D7</f>
         <v>Type in the remaining U.S Census Bureau data and recreate a more appropriate bar chart than the one given to summarize that data.</v>
       </c>
       <c r="E6" s="97"/>
       <c r="F6" s="104"/>
-      <c r="G6" s="261"/>
+      <c r="G6" s="258"/>
       <c r="H6" s="114"/>
       <c r="I6" s="115"/>
       <c r="J6" s="116"/>
       <c r="K6" s="115"/>
       <c r="L6" s="117"/>
-      <c r="M6" s="270" t="s">
+      <c r="M6" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="270"/>
-      <c r="O6" s="270"/>
-      <c r="P6" s="270"/>
-      <c r="Q6" s="270"/>
-      <c r="R6" s="270"/>
-      <c r="S6" s="271"/>
+      <c r="N6" s="259"/>
+      <c r="O6" s="259"/>
+      <c r="P6" s="259"/>
+      <c r="Q6" s="259"/>
+      <c r="R6" s="259"/>
+      <c r="S6" s="260"/>
       <c r="T6" s="97"/>
       <c r="U6" s="118"/>
       <c r="V6" s="118"/>
@@ -37235,10 +37235,10 @@
       <c r="A7" s="91"/>
       <c r="B7" s="97"/>
       <c r="C7" s="119"/>
-      <c r="D7" s="269"/>
+      <c r="D7" s="244"/>
       <c r="E7" s="97"/>
       <c r="F7" s="104"/>
-      <c r="G7" s="261"/>
+      <c r="G7" s="258"/>
       <c r="H7" s="120" t="s">
         <v>16</v>
       </c>
@@ -37310,7 +37310,7 @@
       <c r="C8" s="119"/>
       <c r="D8" s="111"/>
       <c r="E8" s="122"/>
-      <c r="F8" s="275"/>
+      <c r="F8" s="241"/>
       <c r="G8" s="97"/>
       <c r="H8" s="125" t="s">
         <v>17</v>
@@ -37827,12 +37827,12 @@
       <c r="C9" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="268" t="str">
+      <c r="D9" s="243" t="str">
         <f>'Craig''s Report'!D9:D10</f>
         <v xml:space="preserve">Create an appropriate chart or graph that summarizes the company's annual sales by age group category. </v>
       </c>
       <c r="E9" s="122"/>
-      <c r="F9" s="276"/>
+      <c r="F9" s="242"/>
       <c r="G9" s="122"/>
       <c r="H9" s="125" t="s">
         <v>18</v>
@@ -38347,9 +38347,9 @@
       <c r="A10" s="124"/>
       <c r="B10" s="122"/>
       <c r="C10" s="129"/>
-      <c r="D10" s="269"/>
+      <c r="D10" s="244"/>
       <c r="E10" s="122"/>
-      <c r="F10" s="276"/>
+      <c r="F10" s="242"/>
       <c r="G10" s="122"/>
       <c r="H10" s="125" t="s">
         <v>19</v>
@@ -39379,20 +39379,20 @@
       <c r="C12" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="268" t="str">
+      <c r="D12" s="243" t="str">
         <f>'Craig''s Report'!D12:D14</f>
         <v>Check Craig's numerical summaries for accuracy and compute all remaining numerical summaries in order to produce a graph depicting if there is a relationship between                                                                                                                                                                                                                                                                                                                                                                                                               the average annual sales of each store and the store's distance from the nearest athletic stadium.</v>
       </c>
       <c r="E12" s="122"/>
-      <c r="F12" s="275"/>
+      <c r="F12" s="241"/>
       <c r="G12" s="122"/>
       <c r="H12" s="122"/>
-      <c r="I12" s="278" t="s">
+      <c r="I12" s="246" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="279"/>
-      <c r="K12" s="279"/>
-      <c r="L12" s="280"/>
+      <c r="J12" s="247"/>
+      <c r="K12" s="247"/>
+      <c r="L12" s="248"/>
       <c r="M12" s="122"/>
       <c r="N12" s="122"/>
       <c r="O12" s="122"/>
@@ -39888,15 +39888,15 @@
       <c r="A13" s="124"/>
       <c r="B13" s="122"/>
       <c r="C13" s="131"/>
-      <c r="D13" s="277"/>
+      <c r="D13" s="245"/>
       <c r="E13" s="122"/>
-      <c r="F13" s="276"/>
+      <c r="F13" s="242"/>
       <c r="G13" s="122"/>
       <c r="H13" s="122"/>
-      <c r="I13" s="278"/>
-      <c r="J13" s="279"/>
-      <c r="K13" s="279"/>
-      <c r="L13" s="280"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="132"/>
       <c r="N13" s="122"/>
       <c r="O13" s="122"/>
@@ -40392,15 +40392,15 @@
       <c r="A14" s="124"/>
       <c r="B14" s="122"/>
       <c r="C14" s="131"/>
-      <c r="D14" s="269"/>
+      <c r="D14" s="244"/>
       <c r="E14" s="122"/>
       <c r="F14" s="122"/>
       <c r="G14" s="122"/>
       <c r="H14" s="122"/>
-      <c r="I14" s="278"/>
-      <c r="J14" s="279"/>
-      <c r="K14" s="279"/>
-      <c r="L14" s="280"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="247"/>
+      <c r="K14" s="247"/>
+      <c r="L14" s="248"/>
       <c r="M14" s="122"/>
       <c r="N14" s="122"/>
       <c r="O14" s="122"/>
@@ -40901,10 +40901,10 @@
       <c r="F15" s="122"/>
       <c r="G15" s="122"/>
       <c r="H15" s="122"/>
-      <c r="I15" s="278"/>
-      <c r="J15" s="279"/>
-      <c r="K15" s="279"/>
-      <c r="L15" s="280"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="247"/>
+      <c r="K15" s="247"/>
+      <c r="L15" s="248"/>
       <c r="M15" s="122"/>
       <c r="N15" s="122"/>
       <c r="O15" s="122"/>
@@ -41402,7 +41402,7 @@
       <c r="C16" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="268" t="str">
+      <c r="D16" s="243" t="str">
         <f>'Craig''s Report'!D16:D17</f>
         <v xml:space="preserve">Create an appropriate chart or graph (click to review when to use each graph) that summarizes the company's average monthly sales by month of the year. </v>
       </c>
@@ -41410,10 +41410,10 @@
       <c r="F16" s="122"/>
       <c r="G16" s="122"/>
       <c r="H16" s="122"/>
-      <c r="I16" s="278"/>
-      <c r="J16" s="279"/>
-      <c r="K16" s="279"/>
-      <c r="L16" s="280"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="247"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="248"/>
       <c r="M16" s="122"/>
       <c r="N16" s="122"/>
       <c r="O16" s="122"/>
@@ -41909,15 +41909,15 @@
       <c r="A17" s="124"/>
       <c r="B17" s="122"/>
       <c r="C17" s="129"/>
-      <c r="D17" s="269"/>
+      <c r="D17" s="244"/>
       <c r="E17" s="122"/>
       <c r="F17" s="122"/>
       <c r="G17" s="122"/>
       <c r="H17" s="122"/>
-      <c r="I17" s="278"/>
-      <c r="J17" s="279"/>
-      <c r="K17" s="279"/>
-      <c r="L17" s="280"/>
+      <c r="I17" s="246"/>
+      <c r="J17" s="247"/>
+      <c r="K17" s="247"/>
+      <c r="L17" s="248"/>
       <c r="M17" s="122"/>
       <c r="N17" s="122"/>
       <c r="O17" s="122"/>
@@ -42418,10 +42418,10 @@
       <c r="F18" s="122"/>
       <c r="G18" s="122"/>
       <c r="H18" s="122"/>
-      <c r="I18" s="278"/>
-      <c r="J18" s="279"/>
-      <c r="K18" s="279"/>
-      <c r="L18" s="280"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="247"/>
+      <c r="K18" s="247"/>
+      <c r="L18" s="248"/>
       <c r="M18" s="122"/>
       <c r="N18" s="122"/>
       <c r="O18" s="122"/>
@@ -42919,7 +42919,7 @@
       <c r="C19" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="268" t="str">
+      <c r="D19" s="243" t="str">
         <f>'Craig''s Report'!D19:D20</f>
         <v>Write a plan or script for what you would say during the next company meeting when presenting these charts and graphs and numerical summaries to Craig's Team. 
 Your comments should be of professional presentation quality.Provide conclusions from the data and graphics for each of parts #2 through #5. One paragraph per section.</v>
@@ -42928,10 +42928,10 @@
       <c r="F19" s="122"/>
       <c r="G19" s="122"/>
       <c r="H19" s="122"/>
-      <c r="I19" s="278"/>
-      <c r="J19" s="279"/>
-      <c r="K19" s="279"/>
-      <c r="L19" s="280"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="247"/>
+      <c r="K19" s="247"/>
+      <c r="L19" s="248"/>
       <c r="M19" s="122"/>
       <c r="N19" s="122"/>
       <c r="O19" s="122"/>
@@ -43427,15 +43427,15 @@
       <c r="A20" s="124"/>
       <c r="B20" s="122"/>
       <c r="C20" s="122"/>
-      <c r="D20" s="269"/>
+      <c r="D20" s="244"/>
       <c r="E20" s="122"/>
       <c r="F20" s="122"/>
       <c r="G20" s="122"/>
       <c r="H20" s="122"/>
-      <c r="I20" s="281"/>
-      <c r="J20" s="282"/>
-      <c r="K20" s="282"/>
-      <c r="L20" s="283"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="250"/>
+      <c r="L20" s="251"/>
       <c r="M20" s="122"/>
       <c r="N20" s="122"/>
       <c r="O20" s="122"/>
@@ -44438,7 +44438,7 @@
       <c r="D22" s="133"/>
       <c r="E22" s="122"/>
       <c r="F22" s="122"/>
-      <c r="G22" s="261" t="s">
+      <c r="G22" s="258" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="122"/>
@@ -44944,18 +44944,18 @@
       <c r="D23" s="135"/>
       <c r="E23" s="122"/>
       <c r="F23" s="122"/>
-      <c r="G23" s="261"/>
+      <c r="G23" s="258"/>
       <c r="H23" s="136" t="s">
         <v>55</v>
       </c>
       <c r="I23" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="241" t="s">
+      <c r="J23" s="264" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="242"/>
-      <c r="L23" s="243"/>
+      <c r="K23" s="265"/>
+      <c r="L23" s="266"/>
       <c r="M23" s="122"/>
       <c r="N23" s="122"/>
       <c r="O23" s="122"/>
@@ -45454,16 +45454,16 @@
       <c r="D24" s="135"/>
       <c r="E24" s="122"/>
       <c r="F24" s="122"/>
-      <c r="G24" s="261"/>
+      <c r="G24" s="258"/>
       <c r="H24" s="138" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="83">
         <v>85204</v>
       </c>
-      <c r="J24" s="244"/>
-      <c r="K24" s="244"/>
-      <c r="L24" s="245"/>
+      <c r="J24" s="267"/>
+      <c r="K24" s="267"/>
+      <c r="L24" s="268"/>
       <c r="M24" s="122"/>
       <c r="N24" s="122"/>
       <c r="O24" s="122"/>
@@ -45969,9 +45969,9 @@
       <c r="I25" s="84">
         <v>115229</v>
       </c>
-      <c r="J25" s="244"/>
-      <c r="K25" s="244"/>
-      <c r="L25" s="245"/>
+      <c r="J25" s="267"/>
+      <c r="K25" s="267"/>
+      <c r="L25" s="268"/>
       <c r="M25" s="122"/>
       <c r="N25" s="122"/>
       <c r="O25" s="122"/>
@@ -46009,9 +46009,9 @@
       <c r="I26" s="84">
         <v>955820</v>
       </c>
-      <c r="J26" s="244"/>
-      <c r="K26" s="244"/>
-      <c r="L26" s="245"/>
+      <c r="J26" s="267"/>
+      <c r="K26" s="267"/>
+      <c r="L26" s="268"/>
       <c r="M26" s="122"/>
       <c r="N26" s="122"/>
       <c r="O26" s="122"/>
@@ -46053,9 +46053,9 @@
       <c r="I27" s="84">
         <v>402517</v>
       </c>
-      <c r="J27" s="244"/>
-      <c r="K27" s="244"/>
-      <c r="L27" s="245"/>
+      <c r="J27" s="267"/>
+      <c r="K27" s="267"/>
+      <c r="L27" s="268"/>
       <c r="M27" s="122"/>
       <c r="N27" s="122"/>
       <c r="O27" s="122"/>
@@ -46087,13 +46087,13 @@
       <c r="E28" s="97"/>
       <c r="F28" s="122"/>
       <c r="G28" s="122"/>
-      <c r="H28" s="250" t="s">
+      <c r="H28" s="273" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="251"/>
-      <c r="J28" s="246"/>
-      <c r="K28" s="244"/>
-      <c r="L28" s="245"/>
+      <c r="I28" s="274"/>
+      <c r="J28" s="269"/>
+      <c r="K28" s="267"/>
+      <c r="L28" s="268"/>
       <c r="M28" s="122"/>
       <c r="N28" s="122"/>
       <c r="O28" s="122"/>
@@ -46150,11 +46150,11 @@
       <c r="E29" s="122"/>
       <c r="F29" s="122"/>
       <c r="G29" s="122"/>
-      <c r="H29" s="250"/>
-      <c r="I29" s="251"/>
-      <c r="J29" s="246"/>
-      <c r="K29" s="244"/>
-      <c r="L29" s="245"/>
+      <c r="H29" s="273"/>
+      <c r="I29" s="274"/>
+      <c r="J29" s="269"/>
+      <c r="K29" s="267"/>
+      <c r="L29" s="268"/>
       <c r="M29" s="122"/>
       <c r="N29" s="122"/>
       <c r="O29" s="122"/>
@@ -46654,11 +46654,11 @@
       <c r="E30" s="122"/>
       <c r="F30" s="122"/>
       <c r="G30" s="122"/>
-      <c r="H30" s="250"/>
-      <c r="I30" s="251"/>
-      <c r="J30" s="247"/>
-      <c r="K30" s="248"/>
-      <c r="L30" s="249"/>
+      <c r="H30" s="273"/>
+      <c r="I30" s="274"/>
+      <c r="J30" s="270"/>
+      <c r="K30" s="271"/>
+      <c r="L30" s="272"/>
       <c r="M30" s="122"/>
       <c r="N30" s="122"/>
       <c r="O30" s="122"/>
@@ -47661,7 +47661,7 @@
       <c r="D32" s="135"/>
       <c r="E32" s="122"/>
       <c r="F32" s="122"/>
-      <c r="G32" s="216" t="s">
+      <c r="G32" s="226" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="122"/>
@@ -48167,7 +48167,7 @@
       <c r="D33" s="135"/>
       <c r="E33" s="122"/>
       <c r="F33" s="122"/>
-      <c r="G33" s="217"/>
+      <c r="G33" s="227"/>
       <c r="H33" s="136"/>
       <c r="I33" s="120" t="s">
         <v>41</v>
@@ -48683,7 +48683,7 @@
       <c r="D34" s="135"/>
       <c r="E34" s="122"/>
       <c r="F34" s="122"/>
-      <c r="G34" s="218"/>
+      <c r="G34" s="228"/>
       <c r="H34" s="140" t="s">
         <v>48</v>
       </c>
@@ -52815,13 +52815,13 @@
       <c r="J42" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="K42" s="252" t="s">
+      <c r="K42" s="275" t="s">
         <v>72</v>
       </c>
-      <c r="L42" s="253"/>
-      <c r="M42" s="253"/>
-      <c r="N42" s="253"/>
-      <c r="O42" s="254"/>
+      <c r="L42" s="276"/>
+      <c r="M42" s="276"/>
+      <c r="N42" s="276"/>
+      <c r="O42" s="277"/>
       <c r="P42" s="147"/>
       <c r="Q42" s="148"/>
       <c r="R42" s="149"/>
@@ -53328,11 +53328,11 @@
         <f>IF(ISBLANK('Craig''s Report'!J43),"ERROR",IF(ABS('Craig''s Report'!J43-'Craig''s Report'!I39)&lt;0.5,"Correct","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="K43" s="255"/>
-      <c r="L43" s="256"/>
-      <c r="M43" s="256"/>
-      <c r="N43" s="256"/>
-      <c r="O43" s="257"/>
+      <c r="K43" s="278"/>
+      <c r="L43" s="279"/>
+      <c r="M43" s="279"/>
+      <c r="N43" s="279"/>
+      <c r="O43" s="280"/>
       <c r="P43" s="155"/>
       <c r="Q43" s="156"/>
       <c r="R43" s="157"/>
@@ -53839,11 +53839,11 @@
         <f>IF(ISBLANK('Craig''s Report'!J44),"ERROR",IF(ABS('Craig''s Report'!J44-'Craig''s Report'!J39)&lt;0.5,"Correct","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="K44" s="255"/>
-      <c r="L44" s="256"/>
-      <c r="M44" s="256"/>
-      <c r="N44" s="256"/>
-      <c r="O44" s="257"/>
+      <c r="K44" s="278"/>
+      <c r="L44" s="279"/>
+      <c r="M44" s="279"/>
+      <c r="N44" s="279"/>
+      <c r="O44" s="280"/>
       <c r="P44" s="155"/>
       <c r="Q44" s="156"/>
       <c r="R44" s="157"/>
@@ -54350,11 +54350,11 @@
         <f>IF(ISBLANK('Craig''s Report'!J45),"ERROR",IF(ABS('Craig''s Report'!J45-'Craig''s Report'!K39)&lt;0.5,"Correct","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="K45" s="255"/>
-      <c r="L45" s="256"/>
-      <c r="M45" s="256"/>
-      <c r="N45" s="256"/>
-      <c r="O45" s="257"/>
+      <c r="K45" s="278"/>
+      <c r="L45" s="279"/>
+      <c r="M45" s="279"/>
+      <c r="N45" s="279"/>
+      <c r="O45" s="280"/>
       <c r="P45" s="155"/>
       <c r="Q45" s="156"/>
       <c r="R45" s="157"/>
@@ -54861,11 +54861,11 @@
         <f>IF(ISBLANK('Craig''s Report'!J46),"ERROR",IF(ABS('Craig''s Report'!J46-'Craig''s Report'!L39)&lt;0.5,"Correct","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="K46" s="255"/>
-      <c r="L46" s="256"/>
-      <c r="M46" s="256"/>
-      <c r="N46" s="256"/>
-      <c r="O46" s="257"/>
+      <c r="K46" s="278"/>
+      <c r="L46" s="279"/>
+      <c r="M46" s="279"/>
+      <c r="N46" s="279"/>
+      <c r="O46" s="280"/>
       <c r="P46" s="155"/>
       <c r="Q46" s="156"/>
       <c r="R46" s="157"/>
@@ -55372,11 +55372,11 @@
         <f>IF(ISBLANK('Craig''s Report'!J47),"ERROR",IF(ABS('Craig''s Report'!J47-'Craig''s Report'!M39)&lt;0.5,"Correct","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="K47" s="255"/>
-      <c r="L47" s="256"/>
-      <c r="M47" s="256"/>
-      <c r="N47" s="256"/>
-      <c r="O47" s="257"/>
+      <c r="K47" s="278"/>
+      <c r="L47" s="279"/>
+      <c r="M47" s="279"/>
+      <c r="N47" s="279"/>
+      <c r="O47" s="280"/>
       <c r="P47" s="155"/>
       <c r="Q47" s="156"/>
       <c r="R47" s="157"/>
@@ -55883,11 +55883,11 @@
         <f>IF(ISBLANK('Craig''s Report'!J48),"ERROR",IF(ABS('Craig''s Report'!J48-'Craig''s Report'!N39)&lt;1,"Correct","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="K48" s="255"/>
-      <c r="L48" s="256"/>
-      <c r="M48" s="256"/>
-      <c r="N48" s="256"/>
-      <c r="O48" s="257"/>
+      <c r="K48" s="278"/>
+      <c r="L48" s="279"/>
+      <c r="M48" s="279"/>
+      <c r="N48" s="279"/>
+      <c r="O48" s="280"/>
       <c r="P48" s="155"/>
       <c r="Q48" s="156"/>
       <c r="R48" s="157"/>
@@ -56387,11 +56387,11 @@
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="122"/>
-      <c r="K49" s="255"/>
-      <c r="L49" s="256"/>
-      <c r="M49" s="256"/>
-      <c r="N49" s="256"/>
-      <c r="O49" s="257"/>
+      <c r="K49" s="278"/>
+      <c r="L49" s="279"/>
+      <c r="M49" s="279"/>
+      <c r="N49" s="279"/>
+      <c r="O49" s="280"/>
       <c r="P49" s="155"/>
       <c r="Q49" s="156"/>
       <c r="R49" s="157"/>
@@ -56891,11 +56891,11 @@
       <c r="H50" s="122"/>
       <c r="I50" s="122"/>
       <c r="J50" s="158"/>
-      <c r="K50" s="255"/>
-      <c r="L50" s="256"/>
-      <c r="M50" s="256"/>
-      <c r="N50" s="256"/>
-      <c r="O50" s="257"/>
+      <c r="K50" s="278"/>
+      <c r="L50" s="279"/>
+      <c r="M50" s="279"/>
+      <c r="N50" s="279"/>
+      <c r="O50" s="280"/>
       <c r="P50" s="155"/>
       <c r="Q50" s="156"/>
       <c r="R50" s="157"/>
@@ -57395,11 +57395,11 @@
       <c r="H51" s="122"/>
       <c r="I51" s="122"/>
       <c r="J51" s="158"/>
-      <c r="K51" s="255"/>
-      <c r="L51" s="256"/>
-      <c r="M51" s="256"/>
-      <c r="N51" s="256"/>
-      <c r="O51" s="257"/>
+      <c r="K51" s="278"/>
+      <c r="L51" s="279"/>
+      <c r="M51" s="279"/>
+      <c r="N51" s="279"/>
+      <c r="O51" s="280"/>
       <c r="P51" s="155"/>
       <c r="Q51" s="156"/>
       <c r="R51" s="157"/>
@@ -57899,11 +57899,11 @@
       <c r="H52" s="122"/>
       <c r="I52" s="158"/>
       <c r="J52" s="158"/>
-      <c r="K52" s="258"/>
-      <c r="L52" s="259"/>
-      <c r="M52" s="259"/>
-      <c r="N52" s="259"/>
-      <c r="O52" s="260"/>
+      <c r="K52" s="281"/>
+      <c r="L52" s="282"/>
+      <c r="M52" s="282"/>
+      <c r="N52" s="282"/>
+      <c r="O52" s="283"/>
       <c r="P52" s="155"/>
       <c r="Q52" s="156"/>
       <c r="R52" s="157"/>
@@ -58903,7 +58903,7 @@
       <c r="D54" s="135"/>
       <c r="E54" s="122"/>
       <c r="F54" s="122"/>
-      <c r="G54" s="216" t="s">
+      <c r="G54" s="226" t="s">
         <v>66</v>
       </c>
       <c r="H54" s="122"/>
@@ -59409,7 +59409,7 @@
       <c r="D55" s="135"/>
       <c r="E55" s="122"/>
       <c r="F55" s="122"/>
-      <c r="G55" s="217"/>
+      <c r="G55" s="227"/>
       <c r="H55" s="151" t="s">
         <v>22</v>
       </c>
@@ -59419,13 +59419,13 @@
       <c r="J55" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="K55" s="252" t="s">
+      <c r="K55" s="275" t="s">
         <v>73</v>
       </c>
-      <c r="L55" s="253"/>
-      <c r="M55" s="253"/>
-      <c r="N55" s="253"/>
-      <c r="O55" s="254"/>
+      <c r="L55" s="276"/>
+      <c r="M55" s="276"/>
+      <c r="N55" s="276"/>
+      <c r="O55" s="277"/>
       <c r="P55" s="147"/>
       <c r="Q55" s="148"/>
       <c r="R55" s="149"/>
@@ -59921,7 +59921,7 @@
       <c r="D56" s="135"/>
       <c r="E56" s="122"/>
       <c r="F56" s="122"/>
-      <c r="G56" s="218"/>
+      <c r="G56" s="228"/>
       <c r="H56" s="154" t="s">
         <v>3</v>
       </c>
@@ -59931,11 +59931,11 @@
       <c r="J56" s="89">
         <v>54345</v>
       </c>
-      <c r="K56" s="255"/>
-      <c r="L56" s="256"/>
-      <c r="M56" s="256"/>
-      <c r="N56" s="256"/>
-      <c r="O56" s="257"/>
+      <c r="K56" s="278"/>
+      <c r="L56" s="279"/>
+      <c r="M56" s="279"/>
+      <c r="N56" s="279"/>
+      <c r="O56" s="280"/>
       <c r="P56" s="147"/>
       <c r="Q56" s="148"/>
       <c r="R56" s="149"/>
@@ -60441,11 +60441,11 @@
       <c r="J57" s="90">
         <v>67321</v>
       </c>
-      <c r="K57" s="255"/>
-      <c r="L57" s="256"/>
-      <c r="M57" s="256"/>
-      <c r="N57" s="256"/>
-      <c r="O57" s="257"/>
+      <c r="K57" s="278"/>
+      <c r="L57" s="279"/>
+      <c r="M57" s="279"/>
+      <c r="N57" s="279"/>
+      <c r="O57" s="280"/>
       <c r="P57" s="147"/>
       <c r="Q57" s="148"/>
       <c r="R57" s="149"/>
@@ -60951,11 +60951,11 @@
       <c r="J58" s="90">
         <v>86911</v>
       </c>
-      <c r="K58" s="255"/>
-      <c r="L58" s="256"/>
-      <c r="M58" s="256"/>
-      <c r="N58" s="256"/>
-      <c r="O58" s="257"/>
+      <c r="K58" s="278"/>
+      <c r="L58" s="279"/>
+      <c r="M58" s="279"/>
+      <c r="N58" s="279"/>
+      <c r="O58" s="280"/>
       <c r="P58" s="147"/>
       <c r="Q58" s="148"/>
       <c r="R58" s="149"/>
@@ -61461,11 +61461,11 @@
       <c r="J59" s="90">
         <v>105222</v>
       </c>
-      <c r="K59" s="255"/>
-      <c r="L59" s="256"/>
-      <c r="M59" s="256"/>
-      <c r="N59" s="256"/>
-      <c r="O59" s="257"/>
+      <c r="K59" s="278"/>
+      <c r="L59" s="279"/>
+      <c r="M59" s="279"/>
+      <c r="N59" s="279"/>
+      <c r="O59" s="280"/>
       <c r="P59" s="147"/>
       <c r="Q59" s="148"/>
       <c r="R59" s="149"/>
@@ -61503,11 +61503,11 @@
       <c r="J60" s="90">
         <v>110315</v>
       </c>
-      <c r="K60" s="255"/>
-      <c r="L60" s="256"/>
-      <c r="M60" s="256"/>
-      <c r="N60" s="256"/>
-      <c r="O60" s="257"/>
+      <c r="K60" s="278"/>
+      <c r="L60" s="279"/>
+      <c r="M60" s="279"/>
+      <c r="N60" s="279"/>
+      <c r="O60" s="280"/>
       <c r="P60" s="147"/>
       <c r="Q60" s="148"/>
       <c r="R60" s="149"/>
@@ -61545,11 +61545,11 @@
       <c r="J61" s="90">
         <v>133153</v>
       </c>
-      <c r="K61" s="255"/>
-      <c r="L61" s="256"/>
-      <c r="M61" s="256"/>
-      <c r="N61" s="256"/>
-      <c r="O61" s="257"/>
+      <c r="K61" s="278"/>
+      <c r="L61" s="279"/>
+      <c r="M61" s="279"/>
+      <c r="N61" s="279"/>
+      <c r="O61" s="280"/>
       <c r="P61" s="147"/>
       <c r="Q61" s="148"/>
       <c r="R61" s="149"/>
@@ -61587,11 +61587,11 @@
       <c r="J62" s="90">
         <v>156213</v>
       </c>
-      <c r="K62" s="255"/>
-      <c r="L62" s="256"/>
-      <c r="M62" s="256"/>
-      <c r="N62" s="256"/>
-      <c r="O62" s="257"/>
+      <c r="K62" s="278"/>
+      <c r="L62" s="279"/>
+      <c r="M62" s="279"/>
+      <c r="N62" s="279"/>
+      <c r="O62" s="280"/>
       <c r="P62" s="147"/>
       <c r="Q62" s="148"/>
       <c r="R62" s="149"/>
@@ -61629,11 +61629,11 @@
       <c r="J63" s="90">
         <v>168158</v>
       </c>
-      <c r="K63" s="255"/>
-      <c r="L63" s="256"/>
-      <c r="M63" s="256"/>
-      <c r="N63" s="256"/>
-      <c r="O63" s="257"/>
+      <c r="K63" s="278"/>
+      <c r="L63" s="279"/>
+      <c r="M63" s="279"/>
+      <c r="N63" s="279"/>
+      <c r="O63" s="280"/>
       <c r="P63" s="147"/>
       <c r="Q63" s="148"/>
       <c r="R63" s="149"/>
@@ -61671,11 +61671,11 @@
       <c r="J64" s="90">
         <v>135859</v>
       </c>
-      <c r="K64" s="255"/>
-      <c r="L64" s="256"/>
-      <c r="M64" s="256"/>
-      <c r="N64" s="256"/>
-      <c r="O64" s="257"/>
+      <c r="K64" s="278"/>
+      <c r="L64" s="279"/>
+      <c r="M64" s="279"/>
+      <c r="N64" s="279"/>
+      <c r="O64" s="280"/>
       <c r="P64" s="147"/>
       <c r="Q64" s="148"/>
       <c r="R64" s="149"/>
@@ -61713,11 +61713,11 @@
       <c r="J65" s="90">
         <v>93628</v>
       </c>
-      <c r="K65" s="258"/>
-      <c r="L65" s="259"/>
-      <c r="M65" s="259"/>
-      <c r="N65" s="259"/>
-      <c r="O65" s="260"/>
+      <c r="K65" s="281"/>
+      <c r="L65" s="282"/>
+      <c r="M65" s="282"/>
+      <c r="N65" s="282"/>
+      <c r="O65" s="283"/>
       <c r="P65" s="147"/>
       <c r="Q65" s="148"/>
       <c r="R65" s="149"/>
@@ -67693,13 +67693,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="XHAJs8RPgabjEmrLYKw0b5SoWUFRdneoM0TZtOX6gZzrLmxyAjK8f8Zv8CYHuu4KOCiUzlDi0TRQ9ebF646wXQ==" saltValue="MX3lXliAZDpu7CzXyaKa+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="23">
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="I12:L20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="J23:L30"/>
+    <mergeCell ref="H28:I30"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="K42:O52"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="K55:O65"/>
+    <mergeCell ref="G22:G24"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V4:AF4"/>
@@ -67709,42 +67709,44 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I2:P3"/>
-    <mergeCell ref="J23:L30"/>
-    <mergeCell ref="H28:I30"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="K42:O52"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="K55:O65"/>
-    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I12:L20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="P30:U32 J35:L35 J7:M34">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Correct">
+  <conditionalFormatting sqref="I39:N40">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Correct">
+      <formula>NOT(ISERROR(SEARCH("Correct",I39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",I39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:J48">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Correct">
+      <formula>NOT(ISERROR(SEARCH("Correct",J43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",J43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:M34 J35:L35 P30:U32">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="Correct">
       <formula>NOT(ISERROR(SEARCH("Correct",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="ERROR">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:M34 P30:U32 J35:L35">
+    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L35">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="CAUTION">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="CAUTION">
       <formula>NOT(ISERROR(SEARCH("CAUTION",L5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:N40">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Correct">
-      <formula>NOT(ISERROR(SEARCH("Correct",I39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",I39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43:J48">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Correct">
-      <formula>NOT(ISERROR(SEARCH("Correct",J43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
@@ -67951,18 +67953,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67984,14 +67986,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A593444-2314-462F-A12C-2BFD40612080}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3533D911-D796-4071-AC74-071CC6A2DC30}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -68005,4 +67999,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A593444-2314-462F-A12C-2BFD40612080}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>